--- a/data_lakes.xlsx
+++ b/data_lakes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6256" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6254" uniqueCount="274">
   <si>
     <t>Location</t>
   </si>
@@ -704,9 +704,6 @@
     <t>0.5</t>
   </si>
   <si>
-    <t>7.3</t>
-  </si>
-  <si>
     <t>K1523HZ</t>
   </si>
   <si>
@@ -843,10 +840,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -936,7 +934,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1020,6 +1018,9 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
@@ -41432,8 +41433,8 @@
       <c r="G460" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="H460" s="25" t="s">
-        <v>230</v>
+      <c r="H460" s="28">
+        <v>7.4</v>
       </c>
       <c r="I460" s="24" t="s">
         <v>229</v>
@@ -41847,7 +41848,7 @@
     </row>
     <row r="465">
       <c r="A465" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B465" s="12" t="s">
         <v>7</v>
@@ -41859,16 +41860,16 @@
         <v>2023.0</v>
       </c>
       <c r="E465" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="F465" s="24" t="s">
         <v>232</v>
-      </c>
-      <c r="F465" s="24" t="s">
-        <v>233</v>
       </c>
       <c r="G465" s="24">
         <v>166.0</v>
       </c>
       <c r="H465" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I465" s="24" t="s">
         <v>217</v>
@@ -41934,7 +41935,7 @@
     </row>
     <row r="466">
       <c r="A466" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B466" s="12" t="s">
         <v>7</v>
@@ -41946,16 +41947,16 @@
         <v>2023.0</v>
       </c>
       <c r="E466" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="F466" s="24" t="s">
         <v>232</v>
-      </c>
-      <c r="F466" s="24" t="s">
-        <v>233</v>
       </c>
       <c r="G466" s="24">
         <v>166.0</v>
       </c>
       <c r="H466" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I466" s="24" t="s">
         <v>217</v>
@@ -42021,7 +42022,7 @@
     </row>
     <row r="467">
       <c r="A467" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B467" s="12" t="s">
         <v>7</v>
@@ -42033,16 +42034,16 @@
         <v>2023.0</v>
       </c>
       <c r="E467" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="F467" s="24" t="s">
         <v>232</v>
-      </c>
-      <c r="F467" s="24" t="s">
-        <v>233</v>
       </c>
       <c r="G467" s="24">
         <v>166.0</v>
       </c>
       <c r="H467" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I467" s="24" t="s">
         <v>217</v>
@@ -42108,7 +42109,7 @@
     </row>
     <row r="468">
       <c r="A468" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B468" s="12" t="s">
         <v>7</v>
@@ -42120,16 +42121,16 @@
         <v>2023.0</v>
       </c>
       <c r="E468" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="F468" s="24" t="s">
         <v>232</v>
-      </c>
-      <c r="F468" s="24" t="s">
-        <v>233</v>
       </c>
       <c r="G468" s="24">
         <v>166.0</v>
       </c>
       <c r="H468" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I468" s="24" t="s">
         <v>217</v>
@@ -42195,7 +42196,7 @@
     </row>
     <row r="469">
       <c r="A469" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B469" s="12" t="s">
         <v>7</v>
@@ -42207,16 +42208,16 @@
         <v>2023.0</v>
       </c>
       <c r="E469" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="F469" s="24" t="s">
         <v>232</v>
-      </c>
-      <c r="F469" s="24" t="s">
-        <v>233</v>
       </c>
       <c r="G469" s="24">
         <v>166.0</v>
       </c>
       <c r="H469" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I469" s="24" t="s">
         <v>217</v>
@@ -42282,7 +42283,7 @@
     </row>
     <row r="470">
       <c r="A470" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B470" s="12" t="s">
         <v>7</v>
@@ -42294,16 +42295,16 @@
         <v>2023.0</v>
       </c>
       <c r="E470" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="F470" s="24" t="s">
         <v>232</v>
-      </c>
-      <c r="F470" s="24" t="s">
-        <v>233</v>
       </c>
       <c r="G470" s="24">
         <v>166.0</v>
       </c>
       <c r="H470" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I470" s="24" t="s">
         <v>217</v>
@@ -42369,7 +42370,7 @@
     </row>
     <row r="471">
       <c r="A471" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B471" s="12" t="s">
         <v>7</v>
@@ -42381,16 +42382,16 @@
         <v>2023.0</v>
       </c>
       <c r="E471" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="F471" s="24" t="s">
         <v>232</v>
-      </c>
-      <c r="F471" s="24" t="s">
-        <v>233</v>
       </c>
       <c r="G471" s="24">
         <v>166.0</v>
       </c>
       <c r="H471" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I471" s="24" t="s">
         <v>217</v>
@@ -42456,7 +42457,7 @@
     </row>
     <row r="472">
       <c r="A472" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B472" s="12" t="s">
         <v>7</v>
@@ -42468,16 +42469,16 @@
         <v>2024.0</v>
       </c>
       <c r="E472" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="F472" s="24" t="s">
         <v>236</v>
-      </c>
-      <c r="F472" s="24" t="s">
-        <v>237</v>
       </c>
       <c r="G472" s="24">
         <v>166.0</v>
       </c>
       <c r="H472" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I472" s="24" t="s">
         <v>96</v>
@@ -42543,7 +42544,7 @@
     </row>
     <row r="473">
       <c r="A473" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B473" s="12" t="s">
         <v>7</v>
@@ -42555,16 +42556,16 @@
         <v>2024.0</v>
       </c>
       <c r="E473" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="F473" s="24" t="s">
         <v>236</v>
-      </c>
-      <c r="F473" s="24" t="s">
-        <v>237</v>
       </c>
       <c r="G473" s="24">
         <v>166.0</v>
       </c>
       <c r="H473" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I473" s="24" t="s">
         <v>96</v>
@@ -42630,7 +42631,7 @@
     </row>
     <row r="474">
       <c r="A474" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B474" s="12" t="s">
         <v>7</v>
@@ -42642,16 +42643,16 @@
         <v>2024.0</v>
       </c>
       <c r="E474" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="F474" s="24" t="s">
         <v>236</v>
-      </c>
-      <c r="F474" s="24" t="s">
-        <v>237</v>
       </c>
       <c r="G474" s="24">
         <v>166.0</v>
       </c>
       <c r="H474" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I474" s="24" t="s">
         <v>96</v>
@@ -42717,7 +42718,7 @@
     </row>
     <row r="475">
       <c r="A475" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B475" s="12" t="s">
         <v>7</v>
@@ -42729,16 +42730,16 @@
         <v>2024.0</v>
       </c>
       <c r="E475" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="F475" s="24" t="s">
         <v>236</v>
-      </c>
-      <c r="F475" s="24" t="s">
-        <v>237</v>
       </c>
       <c r="G475" s="24">
         <v>166.0</v>
       </c>
       <c r="H475" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I475" s="24" t="s">
         <v>96</v>
@@ -42804,7 +42805,7 @@
     </row>
     <row r="476">
       <c r="A476" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B476" s="12" t="s">
         <v>8</v>
@@ -42828,7 +42829,7 @@
         <v>14.0</v>
       </c>
       <c r="I476" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J476" s="25">
         <v>0.0</v>
@@ -42837,7 +42838,7 @@
         <v>3.0</v>
       </c>
       <c r="L476" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M476" s="19" t="s">
         <v>81</v>
@@ -42891,7 +42892,7 @@
     </row>
     <row r="477">
       <c r="A477" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B477" s="12" t="s">
         <v>8</v>
@@ -42915,7 +42916,7 @@
         <v>14.0</v>
       </c>
       <c r="I477" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J477" s="25">
         <v>0.0</v>
@@ -42978,7 +42979,7 @@
     </row>
     <row r="478">
       <c r="A478" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B478" s="12" t="s">
         <v>8</v>
@@ -43002,7 +43003,7 @@
         <v>14.0</v>
       </c>
       <c r="I478" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J478" s="25">
         <v>0.0</v>
@@ -43065,7 +43066,7 @@
     </row>
     <row r="479">
       <c r="A479" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B479" s="12" t="s">
         <v>8</v>
@@ -43089,7 +43090,7 @@
         <v>14.0</v>
       </c>
       <c r="I479" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J479" s="25">
         <v>0.0</v>
@@ -43152,7 +43153,7 @@
     </row>
     <row r="480">
       <c r="A480" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B480" s="12" t="s">
         <v>8</v>
@@ -43176,7 +43177,7 @@
         <v>14.0</v>
       </c>
       <c r="I480" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J480" s="25">
         <v>0.0</v>
@@ -43239,7 +43240,7 @@
     </row>
     <row r="481">
       <c r="A481" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B481" s="12" t="s">
         <v>8</v>
@@ -43263,7 +43264,7 @@
         <v>14.0</v>
       </c>
       <c r="I481" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J481" s="25">
         <v>0.0</v>
@@ -43326,7 +43327,7 @@
     </row>
     <row r="482">
       <c r="A482" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B482" s="12" t="s">
         <v>8</v>
@@ -43413,7 +43414,7 @@
     </row>
     <row r="483">
       <c r="A483" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B483" s="12" t="s">
         <v>8</v>
@@ -43500,7 +43501,7 @@
     </row>
     <row r="484">
       <c r="A484" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B484" s="12" t="s">
         <v>8</v>
@@ -43587,7 +43588,7 @@
     </row>
     <row r="485">
       <c r="A485" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B485" s="12" t="s">
         <v>8</v>
@@ -43674,7 +43675,7 @@
     </row>
     <row r="486">
       <c r="A486" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B486" s="12" t="s">
         <v>8</v>
@@ -43761,7 +43762,7 @@
     </row>
     <row r="487">
       <c r="A487" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B487" s="12" t="s">
         <v>8</v>
@@ -43848,7 +43849,7 @@
     </row>
     <row r="488">
       <c r="A488" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B488" s="12" t="s">
         <v>8</v>
@@ -43935,7 +43936,7 @@
     </row>
     <row r="489">
       <c r="A489" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B489" s="12" t="s">
         <v>8</v>
@@ -43947,16 +43948,16 @@
         <v>2024.0</v>
       </c>
       <c r="E489" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="F489" s="24" t="s">
         <v>244</v>
-      </c>
-      <c r="F489" s="24" t="s">
-        <v>245</v>
       </c>
       <c r="G489" s="24">
         <v>1203.0</v>
       </c>
       <c r="H489" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I489" s="24" t="s">
         <v>208</v>
@@ -44022,7 +44023,7 @@
     </row>
     <row r="490">
       <c r="A490" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B490" s="12" t="s">
         <v>8</v>
@@ -44034,16 +44035,16 @@
         <v>2024.0</v>
       </c>
       <c r="E490" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="F490" s="24" t="s">
         <v>244</v>
-      </c>
-      <c r="F490" s="24" t="s">
-        <v>245</v>
       </c>
       <c r="G490" s="24">
         <v>1203.0</v>
       </c>
       <c r="H490" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I490" s="24" t="s">
         <v>208</v>
@@ -44109,7 +44110,7 @@
     </row>
     <row r="491">
       <c r="A491" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B491" s="12" t="s">
         <v>8</v>
@@ -44121,16 +44122,16 @@
         <v>2024.0</v>
       </c>
       <c r="E491" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="F491" s="24" t="s">
         <v>244</v>
-      </c>
-      <c r="F491" s="24" t="s">
-        <v>245</v>
       </c>
       <c r="G491" s="24">
         <v>1203.0</v>
       </c>
       <c r="H491" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I491" s="24" t="s">
         <v>208</v>
@@ -44142,7 +44143,7 @@
         <v>3.0</v>
       </c>
       <c r="L491" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M491" s="19" t="s">
         <v>81</v>
@@ -44196,7 +44197,7 @@
     </row>
     <row r="492">
       <c r="A492" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B492" s="12" t="s">
         <v>8</v>
@@ -44208,16 +44209,16 @@
         <v>2024.0</v>
       </c>
       <c r="E492" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="F492" s="24" t="s">
         <v>244</v>
-      </c>
-      <c r="F492" s="24" t="s">
-        <v>245</v>
       </c>
       <c r="G492" s="24">
         <v>1203.0</v>
       </c>
       <c r="H492" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I492" s="24" t="s">
         <v>208</v>
@@ -44283,7 +44284,7 @@
     </row>
     <row r="493">
       <c r="A493" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B493" s="12" t="s">
         <v>8</v>
@@ -44295,16 +44296,16 @@
         <v>2024.0</v>
       </c>
       <c r="E493" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="F493" s="24" t="s">
         <v>244</v>
-      </c>
-      <c r="F493" s="24" t="s">
-        <v>245</v>
       </c>
       <c r="G493" s="24">
         <v>1203.0</v>
       </c>
       <c r="H493" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I493" s="24" t="s">
         <v>208</v>
@@ -44370,7 +44371,7 @@
     </row>
     <row r="494">
       <c r="A494" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B494" s="12" t="s">
         <v>8</v>
@@ -44382,16 +44383,16 @@
         <v>2024.0</v>
       </c>
       <c r="E494" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="F494" s="24" t="s">
         <v>244</v>
-      </c>
-      <c r="F494" s="24" t="s">
-        <v>245</v>
       </c>
       <c r="G494" s="24">
         <v>1203.0</v>
       </c>
       <c r="H494" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I494" s="24" t="s">
         <v>208</v>
@@ -44457,7 +44458,7 @@
     </row>
     <row r="495">
       <c r="A495" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B495" s="12" t="s">
         <v>8</v>
@@ -44469,16 +44470,16 @@
         <v>2024.0</v>
       </c>
       <c r="E495" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="F495" s="24" t="s">
         <v>244</v>
-      </c>
-      <c r="F495" s="24" t="s">
-        <v>245</v>
       </c>
       <c r="G495" s="24">
         <v>1203.0</v>
       </c>
       <c r="H495" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I495" s="24" t="s">
         <v>208</v>
@@ -44544,7 +44545,7 @@
     </row>
     <row r="496">
       <c r="A496" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B496" s="12" t="s">
         <v>8</v>
@@ -44556,16 +44557,16 @@
         <v>2024.0</v>
       </c>
       <c r="E496" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="F496" s="24" t="s">
         <v>244</v>
-      </c>
-      <c r="F496" s="24" t="s">
-        <v>245</v>
       </c>
       <c r="G496" s="24">
         <v>1203.0</v>
       </c>
       <c r="H496" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I496" s="24" t="s">
         <v>208</v>
@@ -44631,7 +44632,7 @@
     </row>
     <row r="497">
       <c r="A497" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B497" s="12" t="s">
         <v>9</v>
@@ -44652,10 +44653,10 @@
         <v>158</v>
       </c>
       <c r="H497" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="I497" s="24" t="s">
         <v>248</v>
-      </c>
-      <c r="I497" s="24" t="s">
-        <v>249</v>
       </c>
       <c r="J497" s="25">
         <v>1.0</v>
@@ -44718,7 +44719,7 @@
     </row>
     <row r="498">
       <c r="A498" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B498" s="12" t="s">
         <v>9</v>
@@ -44739,10 +44740,10 @@
         <v>158</v>
       </c>
       <c r="H498" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="I498" s="24" t="s">
         <v>248</v>
-      </c>
-      <c r="I498" s="24" t="s">
-        <v>249</v>
       </c>
       <c r="J498" s="25">
         <v>1.0</v>
@@ -44805,7 +44806,7 @@
     </row>
     <row r="499">
       <c r="A499" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B499" s="12" t="s">
         <v>9</v>
@@ -44826,10 +44827,10 @@
         <v>158</v>
       </c>
       <c r="H499" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="I499" s="24" t="s">
         <v>248</v>
-      </c>
-      <c r="I499" s="24" t="s">
-        <v>249</v>
       </c>
       <c r="J499" s="25">
         <v>1.0</v>
@@ -44892,7 +44893,7 @@
     </row>
     <row r="500">
       <c r="A500" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B500" s="12" t="s">
         <v>9</v>
@@ -44913,10 +44914,10 @@
         <v>158</v>
       </c>
       <c r="H500" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="I500" s="24" t="s">
         <v>248</v>
-      </c>
-      <c r="I500" s="24" t="s">
-        <v>249</v>
       </c>
       <c r="J500" s="25">
         <v>1.0</v>
@@ -44979,7 +44980,7 @@
     </row>
     <row r="501">
       <c r="A501" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B501" s="12" t="s">
         <v>9</v>
@@ -45000,10 +45001,10 @@
         <v>158</v>
       </c>
       <c r="H501" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="I501" s="24" t="s">
         <v>248</v>
-      </c>
-      <c r="I501" s="24" t="s">
-        <v>249</v>
       </c>
       <c r="J501" s="25">
         <v>1.0</v>
@@ -45066,7 +45067,7 @@
     </row>
     <row r="502">
       <c r="A502" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B502" s="12" t="s">
         <v>9</v>
@@ -45087,10 +45088,10 @@
         <v>158</v>
       </c>
       <c r="H502" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="I502" s="24" t="s">
         <v>248</v>
-      </c>
-      <c r="I502" s="24" t="s">
-        <v>249</v>
       </c>
       <c r="J502" s="25">
         <v>1.0</v>
@@ -45153,7 +45154,7 @@
     </row>
     <row r="503">
       <c r="A503" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B503" s="12" t="s">
         <v>9</v>
@@ -45174,10 +45175,10 @@
         <v>158</v>
       </c>
       <c r="H503" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="I503" s="24" t="s">
         <v>248</v>
-      </c>
-      <c r="I503" s="24" t="s">
-        <v>249</v>
       </c>
       <c r="J503" s="25">
         <v>1.0</v>
@@ -45240,7 +45241,7 @@
     </row>
     <row r="504">
       <c r="A504" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B504" s="12" t="s">
         <v>9</v>
@@ -45261,10 +45262,10 @@
         <v>158</v>
       </c>
       <c r="H504" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="I504" s="24" t="s">
         <v>248</v>
-      </c>
-      <c r="I504" s="24" t="s">
-        <v>249</v>
       </c>
       <c r="J504" s="25">
         <v>1.0</v>
@@ -45327,7 +45328,7 @@
     </row>
     <row r="505">
       <c r="A505" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B505" s="12" t="s">
         <v>9</v>
@@ -45348,10 +45349,10 @@
         <v>158</v>
       </c>
       <c r="H505" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="I505" s="24" t="s">
         <v>248</v>
-      </c>
-      <c r="I505" s="24" t="s">
-        <v>249</v>
       </c>
       <c r="J505" s="25">
         <v>1.0</v>
@@ -45414,7 +45415,7 @@
     </row>
     <row r="506">
       <c r="A506" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B506" s="12" t="s">
         <v>9</v>
@@ -45501,7 +45502,7 @@
     </row>
     <row r="507">
       <c r="A507" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B507" s="12" t="s">
         <v>9</v>
@@ -45588,7 +45589,7 @@
     </row>
     <row r="508">
       <c r="A508" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B508" s="12" t="s">
         <v>9</v>
@@ -45675,7 +45676,7 @@
     </row>
     <row r="509">
       <c r="A509" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B509" s="12" t="s">
         <v>9</v>
@@ -45762,7 +45763,7 @@
     </row>
     <row r="510">
       <c r="A510" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B510" s="12" t="s">
         <v>9</v>
@@ -45849,7 +45850,7 @@
     </row>
     <row r="511">
       <c r="A511" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B511" s="12" t="s">
         <v>9</v>
@@ -45936,7 +45937,7 @@
     </row>
     <row r="512">
       <c r="A512" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B512" s="12" t="s">
         <v>9</v>
@@ -46023,7 +46024,7 @@
     </row>
     <row r="513">
       <c r="A513" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B513" s="12" t="s">
         <v>9</v>
@@ -46110,7 +46111,7 @@
     </row>
     <row r="514">
       <c r="A514" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B514" s="12" t="s">
         <v>9</v>
@@ -46122,19 +46123,19 @@
         <v>2024.0</v>
       </c>
       <c r="E514" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="F514" s="24" t="s">
         <v>252</v>
-      </c>
-      <c r="F514" s="24" t="s">
-        <v>253</v>
       </c>
       <c r="G514" s="24">
         <v>1862.0</v>
       </c>
       <c r="H514" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="I514" s="24" t="s">
         <v>254</v>
-      </c>
-      <c r="I514" s="24" t="s">
-        <v>255</v>
       </c>
       <c r="J514" s="25">
         <v>0.0</v>
@@ -46143,7 +46144,7 @@
         <v>3.0</v>
       </c>
       <c r="L514" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M514" s="19" t="s">
         <v>81</v>
@@ -46197,7 +46198,7 @@
     </row>
     <row r="515">
       <c r="A515" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B515" s="12" t="s">
         <v>9</v>
@@ -46209,19 +46210,19 @@
         <v>2024.0</v>
       </c>
       <c r="E515" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="F515" s="24" t="s">
         <v>252</v>
-      </c>
-      <c r="F515" s="24" t="s">
-        <v>253</v>
       </c>
       <c r="G515" s="24">
         <v>1862.0</v>
       </c>
       <c r="H515" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="I515" s="24" t="s">
         <v>254</v>
-      </c>
-      <c r="I515" s="24" t="s">
-        <v>255</v>
       </c>
       <c r="J515" s="25">
         <v>0.0</v>
@@ -46284,7 +46285,7 @@
     </row>
     <row r="516">
       <c r="A516" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B516" s="12" t="s">
         <v>9</v>
@@ -46296,19 +46297,19 @@
         <v>2024.0</v>
       </c>
       <c r="E516" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="F516" s="24" t="s">
         <v>252</v>
-      </c>
-      <c r="F516" s="24" t="s">
-        <v>253</v>
       </c>
       <c r="G516" s="24">
         <v>1862.0</v>
       </c>
       <c r="H516" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="I516" s="24" t="s">
         <v>254</v>
-      </c>
-      <c r="I516" s="24" t="s">
-        <v>255</v>
       </c>
       <c r="J516" s="25">
         <v>0.0</v>
@@ -46371,7 +46372,7 @@
     </row>
     <row r="517">
       <c r="A517" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B517" s="12" t="s">
         <v>9</v>
@@ -46383,19 +46384,19 @@
         <v>2024.0</v>
       </c>
       <c r="E517" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="F517" s="24" t="s">
         <v>252</v>
-      </c>
-      <c r="F517" s="24" t="s">
-        <v>253</v>
       </c>
       <c r="G517" s="24">
         <v>1862.0</v>
       </c>
       <c r="H517" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="I517" s="24" t="s">
         <v>254</v>
-      </c>
-      <c r="I517" s="24" t="s">
-        <v>255</v>
       </c>
       <c r="J517" s="25">
         <v>0.0</v>
@@ -46458,7 +46459,7 @@
     </row>
     <row r="518">
       <c r="A518" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B518" s="12" t="s">
         <v>9</v>
@@ -46470,19 +46471,19 @@
         <v>2024.0</v>
       </c>
       <c r="E518" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="F518" s="24" t="s">
         <v>252</v>
-      </c>
-      <c r="F518" s="24" t="s">
-        <v>253</v>
       </c>
       <c r="G518" s="24">
         <v>1862.0</v>
       </c>
       <c r="H518" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="I518" s="24" t="s">
         <v>254</v>
-      </c>
-      <c r="I518" s="24" t="s">
-        <v>255</v>
       </c>
       <c r="J518" s="25">
         <v>0.0</v>
@@ -46545,7 +46546,7 @@
     </row>
     <row r="519">
       <c r="A519" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B519" s="12" t="s">
         <v>9</v>
@@ -46557,19 +46558,19 @@
         <v>2024.0</v>
       </c>
       <c r="E519" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="F519" s="24" t="s">
         <v>252</v>
-      </c>
-      <c r="F519" s="24" t="s">
-        <v>253</v>
       </c>
       <c r="G519" s="24">
         <v>1862.0</v>
       </c>
       <c r="H519" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="I519" s="24" t="s">
         <v>254</v>
-      </c>
-      <c r="I519" s="24" t="s">
-        <v>255</v>
       </c>
       <c r="J519" s="25">
         <v>0.0</v>
@@ -46632,7 +46633,7 @@
     </row>
     <row r="520">
       <c r="A520" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B520" s="12" t="s">
         <v>10</v>
@@ -46719,7 +46720,7 @@
     </row>
     <row r="521">
       <c r="A521" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B521" s="12" t="s">
         <v>10</v>
@@ -46806,7 +46807,7 @@
     </row>
     <row r="522">
       <c r="A522" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B522" s="12" t="s">
         <v>10</v>
@@ -46893,7 +46894,7 @@
     </row>
     <row r="523">
       <c r="A523" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B523" s="12" t="s">
         <v>10</v>
@@ -46980,7 +46981,7 @@
     </row>
     <row r="524">
       <c r="A524" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B524" s="12" t="s">
         <v>10</v>
@@ -47067,7 +47068,7 @@
     </row>
     <row r="525">
       <c r="A525" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B525" s="12" t="s">
         <v>10</v>
@@ -47154,7 +47155,7 @@
     </row>
     <row r="526">
       <c r="A526" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B526" s="12" t="s">
         <v>10</v>
@@ -47241,7 +47242,7 @@
     </row>
     <row r="527">
       <c r="A527" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B527" s="12" t="s">
         <v>10</v>
@@ -47328,7 +47329,7 @@
     </row>
     <row r="528">
       <c r="A528" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B528" s="12" t="s">
         <v>10</v>
@@ -47415,7 +47416,7 @@
     </row>
     <row r="529">
       <c r="A529" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B529" s="12" t="s">
         <v>10</v>
@@ -47502,7 +47503,7 @@
     </row>
     <row r="530">
       <c r="A530" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B530" s="12" t="s">
         <v>10</v>
@@ -47589,7 +47590,7 @@
     </row>
     <row r="531">
       <c r="A531" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B531" s="12" t="s">
         <v>10</v>
@@ -47676,7 +47677,7 @@
     </row>
     <row r="532">
       <c r="A532" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B532" s="12" t="s">
         <v>10</v>
@@ -47763,7 +47764,7 @@
     </row>
     <row r="533">
       <c r="A533" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B533" s="12" t="s">
         <v>10</v>
@@ -47850,7 +47851,7 @@
     </row>
     <row r="534">
       <c r="A534" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B534" s="12" t="s">
         <v>10</v>
@@ -47937,7 +47938,7 @@
     </row>
     <row r="535">
       <c r="A535" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B535" s="12" t="s">
         <v>10</v>
@@ -48024,7 +48025,7 @@
     </row>
     <row r="536">
       <c r="A536" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B536" s="12" t="s">
         <v>10</v>
@@ -48111,7 +48112,7 @@
     </row>
     <row r="537">
       <c r="A537" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B537" s="12" t="s">
         <v>10</v>
@@ -48198,7 +48199,7 @@
     </row>
     <row r="538">
       <c r="A538" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B538" s="12" t="s">
         <v>10</v>
@@ -48285,7 +48286,7 @@
     </row>
     <row r="539">
       <c r="A539" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B539" s="12" t="s">
         <v>10</v>
@@ -48297,7 +48298,7 @@
         <v>107</v>
       </c>
       <c r="E539" s="24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F539" s="24">
         <v>78.0</v>
@@ -48306,7 +48307,7 @@
         <v>330.0</v>
       </c>
       <c r="H539" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I539" s="24" t="s">
         <v>96</v>
@@ -48372,7 +48373,7 @@
     </row>
     <row r="540">
       <c r="A540" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B540" s="12" t="s">
         <v>10</v>
@@ -48384,7 +48385,7 @@
         <v>107</v>
       </c>
       <c r="E540" s="24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F540" s="24">
         <v>78.0</v>
@@ -48393,7 +48394,7 @@
         <v>330.0</v>
       </c>
       <c r="H540" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I540" s="24" t="s">
         <v>96</v>
@@ -48459,7 +48460,7 @@
     </row>
     <row r="541">
       <c r="A541" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B541" s="12" t="s">
         <v>10</v>
@@ -48471,7 +48472,7 @@
         <v>107</v>
       </c>
       <c r="E541" s="24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F541" s="24">
         <v>78.0</v>
@@ -48480,7 +48481,7 @@
         <v>330.0</v>
       </c>
       <c r="H541" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I541" s="24" t="s">
         <v>96</v>
@@ -48546,7 +48547,7 @@
     </row>
     <row r="542">
       <c r="A542" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B542" s="12" t="s">
         <v>10</v>
@@ -48558,7 +48559,7 @@
         <v>107</v>
       </c>
       <c r="E542" s="24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F542" s="24">
         <v>78.0</v>
@@ -48567,7 +48568,7 @@
         <v>330.0</v>
       </c>
       <c r="H542" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I542" s="24" t="s">
         <v>96</v>
@@ -48633,7 +48634,7 @@
     </row>
     <row r="543">
       <c r="A543" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B543" s="12" t="s">
         <v>10</v>
@@ -48645,7 +48646,7 @@
         <v>107</v>
       </c>
       <c r="E543" s="24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F543" s="24">
         <v>78.0</v>
@@ -48654,7 +48655,7 @@
         <v>330.0</v>
       </c>
       <c r="H543" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I543" s="24" t="s">
         <v>96</v>
@@ -48720,7 +48721,7 @@
     </row>
     <row r="544">
       <c r="A544" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B544" s="12" t="s">
         <v>10</v>
@@ -48732,7 +48733,7 @@
         <v>107</v>
       </c>
       <c r="E544" s="24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F544" s="24">
         <v>78.0</v>
@@ -48741,7 +48742,7 @@
         <v>330.0</v>
       </c>
       <c r="H544" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I544" s="24" t="s">
         <v>96</v>
@@ -48807,7 +48808,7 @@
     </row>
     <row r="545">
       <c r="A545" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B545" s="12" t="s">
         <v>10</v>
@@ -48819,7 +48820,7 @@
         <v>107</v>
       </c>
       <c r="E545" s="24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F545" s="24">
         <v>78.0</v>
@@ -48828,7 +48829,7 @@
         <v>330.0</v>
       </c>
       <c r="H545" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I545" s="24" t="s">
         <v>96</v>
@@ -48894,7 +48895,7 @@
     </row>
     <row r="546">
       <c r="A546" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B546" s="12" t="s">
         <v>10</v>
@@ -48906,7 +48907,7 @@
         <v>107</v>
       </c>
       <c r="E546" s="24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F546" s="24">
         <v>78.0</v>
@@ -48915,7 +48916,7 @@
         <v>330.0</v>
       </c>
       <c r="H546" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I546" s="24" t="s">
         <v>96</v>
@@ -48981,7 +48982,7 @@
     </row>
     <row r="547">
       <c r="A547" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B547" s="12" t="s">
         <v>10</v>
@@ -48993,7 +48994,7 @@
         <v>107</v>
       </c>
       <c r="E547" s="24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F547" s="24">
         <v>78.0</v>
@@ -49002,7 +49003,7 @@
         <v>330.0</v>
       </c>
       <c r="H547" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I547" s="24" t="s">
         <v>96</v>
@@ -49068,7 +49069,7 @@
     </row>
     <row r="548">
       <c r="A548" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B548" s="12" t="s">
         <v>10</v>
@@ -49080,7 +49081,7 @@
         <v>107</v>
       </c>
       <c r="E548" s="24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F548" s="24">
         <v>78.0</v>
@@ -49089,7 +49090,7 @@
         <v>330.0</v>
       </c>
       <c r="H548" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I548" s="24" t="s">
         <v>96</v>
@@ -49155,7 +49156,7 @@
     </row>
     <row r="549">
       <c r="A549" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B549" s="12" t="s">
         <v>10</v>
@@ -49167,7 +49168,7 @@
         <v>107</v>
       </c>
       <c r="E549" s="24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F549" s="24">
         <v>78.0</v>
@@ -49176,7 +49177,7 @@
         <v>330.0</v>
       </c>
       <c r="H549" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I549" s="24" t="s">
         <v>96</v>
@@ -49242,7 +49243,7 @@
     </row>
     <row r="550">
       <c r="A550" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B550" s="12" t="s">
         <v>10</v>
@@ -49254,7 +49255,7 @@
         <v>107</v>
       </c>
       <c r="E550" s="24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F550" s="24">
         <v>78.0</v>
@@ -49263,7 +49264,7 @@
         <v>330.0</v>
       </c>
       <c r="H550" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I550" s="24" t="s">
         <v>96</v>
@@ -49329,7 +49330,7 @@
     </row>
     <row r="551">
       <c r="A551" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B551" s="12" t="s">
         <v>10</v>
@@ -49341,7 +49342,7 @@
         <v>107</v>
       </c>
       <c r="E551" s="24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F551" s="24">
         <v>78.0</v>
@@ -49350,7 +49351,7 @@
         <v>330.0</v>
       </c>
       <c r="H551" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I551" s="24" t="s">
         <v>96</v>
@@ -49416,7 +49417,7 @@
     </row>
     <row r="552">
       <c r="A552" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B552" s="12" t="s">
         <v>10</v>
@@ -49428,7 +49429,7 @@
         <v>107</v>
       </c>
       <c r="E552" s="24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F552" s="24">
         <v>78.0</v>
@@ -49437,7 +49438,7 @@
         <v>330.0</v>
       </c>
       <c r="H552" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I552" s="24" t="s">
         <v>96</v>
@@ -49503,7 +49504,7 @@
     </row>
     <row r="553">
       <c r="A553" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B553" s="12" t="s">
         <v>10</v>
@@ -49515,7 +49516,7 @@
         <v>107</v>
       </c>
       <c r="E553" s="24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F553" s="24">
         <v>78.0</v>
@@ -49524,7 +49525,7 @@
         <v>330.0</v>
       </c>
       <c r="H553" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I553" s="24" t="s">
         <v>96</v>
@@ -49590,7 +49591,7 @@
     </row>
     <row r="554">
       <c r="A554" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B554" s="12" t="s">
         <v>10</v>
@@ -49602,7 +49603,7 @@
         <v>107</v>
       </c>
       <c r="E554" s="24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F554" s="24">
         <v>78.0</v>
@@ -49611,7 +49612,7 @@
         <v>330.0</v>
       </c>
       <c r="H554" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I554" s="24" t="s">
         <v>96</v>
@@ -49677,7 +49678,7 @@
     </row>
     <row r="555">
       <c r="A555" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B555" s="12" t="s">
         <v>10</v>
@@ -49698,7 +49699,7 @@
         <v>158</v>
       </c>
       <c r="H555" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I555" s="24" t="s">
         <v>79</v>
@@ -49764,7 +49765,7 @@
     </row>
     <row r="556">
       <c r="A556" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B556" s="12" t="s">
         <v>10</v>
@@ -49785,7 +49786,7 @@
         <v>158</v>
       </c>
       <c r="H556" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I556" s="24" t="s">
         <v>79</v>
@@ -49851,7 +49852,7 @@
     </row>
     <row r="557">
       <c r="A557" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B557" s="12" t="s">
         <v>10</v>
@@ -49872,7 +49873,7 @@
         <v>158</v>
       </c>
       <c r="H557" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I557" s="24" t="s">
         <v>79</v>
@@ -49938,7 +49939,7 @@
     </row>
     <row r="558">
       <c r="A558" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B558" s="12" t="s">
         <v>10</v>
@@ -49959,7 +49960,7 @@
         <v>158</v>
       </c>
       <c r="H558" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I558" s="24" t="s">
         <v>79</v>
@@ -50025,7 +50026,7 @@
     </row>
     <row r="559">
       <c r="A559" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B559" s="12" t="s">
         <v>10</v>
@@ -50046,7 +50047,7 @@
         <v>158</v>
       </c>
       <c r="H559" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I559" s="24" t="s">
         <v>79</v>
@@ -50112,7 +50113,7 @@
     </row>
     <row r="560">
       <c r="A560" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B560" s="12" t="s">
         <v>10</v>
@@ -50133,7 +50134,7 @@
         <v>158</v>
       </c>
       <c r="H560" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I560" s="24" t="s">
         <v>79</v>
@@ -50199,7 +50200,7 @@
     </row>
     <row r="561">
       <c r="A561" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B561" s="12" t="s">
         <v>10</v>
@@ -50220,7 +50221,7 @@
         <v>158</v>
       </c>
       <c r="H561" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I561" s="24" t="s">
         <v>79</v>
@@ -50286,7 +50287,7 @@
     </row>
     <row r="562">
       <c r="A562" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B562" s="12" t="s">
         <v>10</v>
@@ -50307,7 +50308,7 @@
         <v>158</v>
       </c>
       <c r="H562" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I562" s="24" t="s">
         <v>79</v>
@@ -50373,7 +50374,7 @@
     </row>
     <row r="563">
       <c r="A563" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B563" s="12" t="s">
         <v>10</v>
@@ -50394,7 +50395,7 @@
         <v>158</v>
       </c>
       <c r="H563" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I563" s="24" t="s">
         <v>79</v>
@@ -50460,7 +50461,7 @@
     </row>
     <row r="564">
       <c r="A564" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B564" s="12" t="s">
         <v>10</v>
@@ -50481,7 +50482,7 @@
         <v>158</v>
       </c>
       <c r="H564" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I564" s="24" t="s">
         <v>79</v>
@@ -50547,7 +50548,7 @@
     </row>
     <row r="565">
       <c r="A565" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B565" s="12" t="s">
         <v>10</v>
@@ -50568,7 +50569,7 @@
         <v>158</v>
       </c>
       <c r="H565" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I565" s="24" t="s">
         <v>79</v>
@@ -50634,7 +50635,7 @@
     </row>
     <row r="566">
       <c r="A566" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B566" s="12" t="s">
         <v>10</v>
@@ -50655,7 +50656,7 @@
         <v>158</v>
       </c>
       <c r="H566" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I566" s="24" t="s">
         <v>79</v>
@@ -50721,7 +50722,7 @@
     </row>
     <row r="567">
       <c r="A567" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B567" s="12" t="s">
         <v>10</v>
@@ -50733,16 +50734,16 @@
         <v>2022.0</v>
       </c>
       <c r="E567" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="F567" s="24" t="s">
         <v>264</v>
-      </c>
-      <c r="F567" s="24" t="s">
-        <v>265</v>
       </c>
       <c r="G567" s="24">
         <v>279.0</v>
       </c>
       <c r="H567" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I567" s="24" t="s">
         <v>229</v>
@@ -50808,7 +50809,7 @@
     </row>
     <row r="568">
       <c r="A568" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B568" s="12" t="s">
         <v>10</v>
@@ -50820,16 +50821,16 @@
         <v>2022.0</v>
       </c>
       <c r="E568" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="F568" s="24" t="s">
         <v>264</v>
-      </c>
-      <c r="F568" s="24" t="s">
-        <v>265</v>
       </c>
       <c r="G568" s="24">
         <v>279.0</v>
       </c>
       <c r="H568" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I568" s="24" t="s">
         <v>229</v>
@@ -50895,7 +50896,7 @@
     </row>
     <row r="569">
       <c r="A569" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B569" s="12" t="s">
         <v>10</v>
@@ -50907,16 +50908,16 @@
         <v>2022.0</v>
       </c>
       <c r="E569" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="F569" s="24" t="s">
         <v>264</v>
-      </c>
-      <c r="F569" s="24" t="s">
-        <v>265</v>
       </c>
       <c r="G569" s="24">
         <v>279.0</v>
       </c>
       <c r="H569" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I569" s="24" t="s">
         <v>229</v>
@@ -50982,7 +50983,7 @@
     </row>
     <row r="570">
       <c r="A570" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B570" s="12" t="s">
         <v>10</v>
@@ -50994,16 +50995,16 @@
         <v>2022.0</v>
       </c>
       <c r="E570" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="F570" s="24" t="s">
         <v>264</v>
-      </c>
-      <c r="F570" s="24" t="s">
-        <v>265</v>
       </c>
       <c r="G570" s="24">
         <v>279.0</v>
       </c>
       <c r="H570" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I570" s="24" t="s">
         <v>229</v>
@@ -51069,7 +51070,7 @@
     </row>
     <row r="571">
       <c r="A571" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B571" s="12" t="s">
         <v>10</v>
@@ -51081,16 +51082,16 @@
         <v>2022.0</v>
       </c>
       <c r="E571" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="F571" s="24" t="s">
         <v>264</v>
-      </c>
-      <c r="F571" s="24" t="s">
-        <v>265</v>
       </c>
       <c r="G571" s="24">
         <v>279.0</v>
       </c>
       <c r="H571" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I571" s="24" t="s">
         <v>229</v>
@@ -51156,7 +51157,7 @@
     </row>
     <row r="572">
       <c r="A572" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B572" s="12" t="s">
         <v>10</v>
@@ -51168,16 +51169,16 @@
         <v>2022.0</v>
       </c>
       <c r="E572" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="F572" s="24" t="s">
         <v>264</v>
-      </c>
-      <c r="F572" s="24" t="s">
-        <v>265</v>
       </c>
       <c r="G572" s="24">
         <v>279.0</v>
       </c>
       <c r="H572" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I572" s="24" t="s">
         <v>229</v>
@@ -51243,7 +51244,7 @@
     </row>
     <row r="573">
       <c r="A573" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B573" s="12" t="s">
         <v>10</v>
@@ -51255,16 +51256,16 @@
         <v>2022.0</v>
       </c>
       <c r="E573" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="F573" s="24" t="s">
         <v>264</v>
-      </c>
-      <c r="F573" s="24" t="s">
-        <v>265</v>
       </c>
       <c r="G573" s="24">
         <v>279.0</v>
       </c>
       <c r="H573" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I573" s="24" t="s">
         <v>229</v>
@@ -51330,7 +51331,7 @@
     </row>
     <row r="574">
       <c r="A574" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B574" s="12" t="s">
         <v>10</v>
@@ -51342,16 +51343,16 @@
         <v>2022.0</v>
       </c>
       <c r="E574" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="F574" s="24" t="s">
         <v>264</v>
-      </c>
-      <c r="F574" s="24" t="s">
-        <v>265</v>
       </c>
       <c r="G574" s="24">
         <v>279.0</v>
       </c>
       <c r="H574" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I574" s="24" t="s">
         <v>229</v>
@@ -51417,7 +51418,7 @@
     </row>
     <row r="575">
       <c r="A575" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B575" s="12" t="s">
         <v>10</v>
@@ -51429,16 +51430,16 @@
         <v>2022.0</v>
       </c>
       <c r="E575" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="F575" s="24" t="s">
         <v>264</v>
-      </c>
-      <c r="F575" s="24" t="s">
-        <v>265</v>
       </c>
       <c r="G575" s="24">
         <v>279.0</v>
       </c>
       <c r="H575" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I575" s="24" t="s">
         <v>229</v>
@@ -51504,7 +51505,7 @@
     </row>
     <row r="576">
       <c r="A576" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B576" s="12" t="s">
         <v>10</v>
@@ -51512,20 +51513,20 @@
       <c r="C576" s="13">
         <v>44768.0</v>
       </c>
-      <c r="D576" s="28">
+      <c r="D576" s="29">
         <v>2022.0</v>
       </c>
       <c r="E576" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="F576" s="24" t="s">
         <v>264</v>
-      </c>
-      <c r="F576" s="24" t="s">
-        <v>265</v>
       </c>
       <c r="G576" s="24">
         <v>279.0</v>
       </c>
       <c r="H576" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I576" s="24" t="s">
         <v>229</v>
@@ -51536,7 +51537,7 @@
       <c r="K576" s="26">
         <v>1.0</v>
       </c>
-      <c r="L576" s="29" t="s">
+      <c r="L576" s="30" t="s">
         <v>49</v>
       </c>
       <c r="M576" s="19" t="s">
@@ -51591,7 +51592,7 @@
     </row>
     <row r="577">
       <c r="A577" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B577" s="12" t="s">
         <v>10</v>
@@ -51599,20 +51600,20 @@
       <c r="C577" s="13">
         <v>44768.0</v>
       </c>
-      <c r="D577" s="30">
+      <c r="D577" s="31">
         <v>2022.0</v>
       </c>
       <c r="E577" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="F577" s="24" t="s">
         <v>264</v>
-      </c>
-      <c r="F577" s="24" t="s">
-        <v>265</v>
       </c>
       <c r="G577" s="24">
         <v>279.0</v>
       </c>
       <c r="H577" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I577" s="24" t="s">
         <v>229</v>
@@ -51623,7 +51624,7 @@
       <c r="K577" s="26">
         <v>2.0</v>
       </c>
-      <c r="L577" s="31" t="s">
+      <c r="L577" s="32" t="s">
         <v>72</v>
       </c>
       <c r="M577" s="19" t="s">
@@ -51678,7 +51679,7 @@
     </row>
     <row r="578">
       <c r="A578" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B578" s="12" t="s">
         <v>10</v>
@@ -51686,20 +51687,20 @@
       <c r="C578" s="13">
         <v>44768.0</v>
       </c>
-      <c r="D578" s="30">
+      <c r="D578" s="31">
         <v>2022.0</v>
       </c>
       <c r="E578" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="F578" s="24" t="s">
         <v>264</v>
-      </c>
-      <c r="F578" s="24" t="s">
-        <v>265</v>
       </c>
       <c r="G578" s="24">
         <v>279.0</v>
       </c>
       <c r="H578" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I578" s="24" t="s">
         <v>229</v>
@@ -51710,7 +51711,7 @@
       <c r="K578" s="26">
         <v>2.0</v>
       </c>
-      <c r="L578" s="31" t="s">
+      <c r="L578" s="32" t="s">
         <v>82</v>
       </c>
       <c r="M578" s="19" t="s">
@@ -51765,7 +51766,7 @@
     </row>
     <row r="579">
       <c r="A579" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B579" s="12" t="s">
         <v>10</v>
@@ -51773,20 +51774,20 @@
       <c r="C579" s="13">
         <v>44768.0</v>
       </c>
-      <c r="D579" s="30">
+      <c r="D579" s="31">
         <v>2022.0</v>
       </c>
       <c r="E579" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="F579" s="24" t="s">
         <v>264</v>
-      </c>
-      <c r="F579" s="24" t="s">
-        <v>265</v>
       </c>
       <c r="G579" s="24">
         <v>279.0</v>
       </c>
       <c r="H579" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I579" s="24" t="s">
         <v>229</v>
@@ -51797,7 +51798,7 @@
       <c r="K579" s="26">
         <v>2.0</v>
       </c>
-      <c r="L579" s="31" t="s">
+      <c r="L579" s="32" t="s">
         <v>73</v>
       </c>
       <c r="M579" s="19" t="s">
@@ -51852,7 +51853,7 @@
     </row>
     <row r="580">
       <c r="A580" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B580" s="12" t="s">
         <v>10</v>
@@ -51860,20 +51861,20 @@
       <c r="C580" s="13">
         <v>44768.0</v>
       </c>
-      <c r="D580" s="30">
+      <c r="D580" s="31">
         <v>2022.0</v>
       </c>
       <c r="E580" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="F580" s="24" t="s">
         <v>264</v>
-      </c>
-      <c r="F580" s="24" t="s">
-        <v>265</v>
       </c>
       <c r="G580" s="24">
         <v>279.0</v>
       </c>
       <c r="H580" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I580" s="24" t="s">
         <v>229</v>
@@ -51884,7 +51885,7 @@
       <c r="K580" s="26">
         <v>2.0</v>
       </c>
-      <c r="L580" s="31" t="s">
+      <c r="L580" s="32" t="s">
         <v>137</v>
       </c>
       <c r="M580" s="19" t="s">
@@ -51939,7 +51940,7 @@
     </row>
     <row r="581">
       <c r="A581" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B581" s="12" t="s">
         <v>10</v>
@@ -51947,20 +51948,20 @@
       <c r="C581" s="13">
         <v>44768.0</v>
       </c>
-      <c r="D581" s="30">
+      <c r="D581" s="31">
         <v>2022.0</v>
       </c>
       <c r="E581" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="F581" s="24" t="s">
         <v>264</v>
-      </c>
-      <c r="F581" s="24" t="s">
-        <v>265</v>
       </c>
       <c r="G581" s="24">
         <v>279.0</v>
       </c>
       <c r="H581" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I581" s="24" t="s">
         <v>229</v>
@@ -51971,7 +51972,7 @@
       <c r="K581" s="26">
         <v>2.0</v>
       </c>
-      <c r="L581" s="31" t="s">
+      <c r="L581" s="32" t="s">
         <v>66</v>
       </c>
       <c r="M581" s="19" t="s">
@@ -52026,7 +52027,7 @@
     </row>
     <row r="582">
       <c r="A582" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B582" s="12" t="s">
         <v>10</v>
@@ -52034,20 +52035,20 @@
       <c r="C582" s="13">
         <v>45127.0</v>
       </c>
-      <c r="D582" s="30">
+      <c r="D582" s="31">
         <v>2023.0</v>
       </c>
       <c r="E582" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="F582" s="24" t="s">
         <v>268</v>
-      </c>
-      <c r="F582" s="24" t="s">
-        <v>269</v>
       </c>
       <c r="G582" s="24">
         <v>212.0</v>
       </c>
       <c r="H582" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I582" s="24" t="s">
         <v>79</v>
@@ -52058,7 +52059,7 @@
       <c r="K582" s="26">
         <v>1.0</v>
       </c>
-      <c r="L582" s="31" t="s">
+      <c r="L582" s="32" t="s">
         <v>74</v>
       </c>
       <c r="M582" s="19" t="s">
@@ -52113,7 +52114,7 @@
     </row>
     <row r="583">
       <c r="A583" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B583" s="12" t="s">
         <v>10</v>
@@ -52121,20 +52122,20 @@
       <c r="C583" s="13">
         <v>45127.0</v>
       </c>
-      <c r="D583" s="30">
+      <c r="D583" s="31">
         <v>2023.0</v>
       </c>
       <c r="E583" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="F583" s="24" t="s">
         <v>268</v>
-      </c>
-      <c r="F583" s="24" t="s">
-        <v>269</v>
       </c>
       <c r="G583" s="24">
         <v>212.0</v>
       </c>
       <c r="H583" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I583" s="24" t="s">
         <v>79</v>
@@ -52145,7 +52146,7 @@
       <c r="K583" s="26">
         <v>1.0</v>
       </c>
-      <c r="L583" s="31" t="s">
+      <c r="L583" s="32" t="s">
         <v>49</v>
       </c>
       <c r="M583" s="19" t="s">
@@ -52200,7 +52201,7 @@
     </row>
     <row r="584">
       <c r="A584" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B584" s="12" t="s">
         <v>10</v>
@@ -52208,20 +52209,20 @@
       <c r="C584" s="13">
         <v>45127.0</v>
       </c>
-      <c r="D584" s="30">
+      <c r="D584" s="31">
         <v>2023.0</v>
       </c>
       <c r="E584" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="F584" s="24" t="s">
         <v>268</v>
-      </c>
-      <c r="F584" s="24" t="s">
-        <v>269</v>
       </c>
       <c r="G584" s="24">
         <v>212.0</v>
       </c>
       <c r="H584" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I584" s="24" t="s">
         <v>79</v>
@@ -52232,7 +52233,7 @@
       <c r="K584" s="26">
         <v>1.0</v>
       </c>
-      <c r="L584" s="31" t="s">
+      <c r="L584" s="32" t="s">
         <v>98</v>
       </c>
       <c r="M584" s="19" t="s">
@@ -52287,7 +52288,7 @@
     </row>
     <row r="585">
       <c r="A585" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B585" s="12" t="s">
         <v>10</v>
@@ -52295,20 +52296,20 @@
       <c r="C585" s="13">
         <v>45127.0</v>
       </c>
-      <c r="D585" s="30">
+      <c r="D585" s="31">
         <v>2023.0</v>
       </c>
       <c r="E585" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="F585" s="24" t="s">
         <v>268</v>
-      </c>
-      <c r="F585" s="24" t="s">
-        <v>269</v>
       </c>
       <c r="G585" s="24">
         <v>212.0</v>
       </c>
       <c r="H585" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I585" s="24" t="s">
         <v>79</v>
@@ -52319,7 +52320,7 @@
       <c r="K585" s="26">
         <v>1.0</v>
       </c>
-      <c r="L585" s="31" t="s">
+      <c r="L585" s="32" t="s">
         <v>68</v>
       </c>
       <c r="M585" s="19" t="s">
@@ -52374,7 +52375,7 @@
     </row>
     <row r="586">
       <c r="A586" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B586" s="12" t="s">
         <v>10</v>
@@ -52382,20 +52383,20 @@
       <c r="C586" s="13">
         <v>45127.0</v>
       </c>
-      <c r="D586" s="30">
+      <c r="D586" s="31">
         <v>2023.0</v>
       </c>
       <c r="E586" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="F586" s="24" t="s">
         <v>268</v>
-      </c>
-      <c r="F586" s="24" t="s">
-        <v>269</v>
       </c>
       <c r="G586" s="24">
         <v>212.0</v>
       </c>
       <c r="H586" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I586" s="24" t="s">
         <v>79</v>
@@ -52406,7 +52407,7 @@
       <c r="K586" s="26">
         <v>1.0</v>
       </c>
-      <c r="L586" s="31" t="s">
+      <c r="L586" s="32" t="s">
         <v>84</v>
       </c>
       <c r="M586" s="19" t="s">
@@ -52461,7 +52462,7 @@
     </row>
     <row r="587">
       <c r="A587" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B587" s="12" t="s">
         <v>10</v>
@@ -52469,20 +52470,20 @@
       <c r="C587" s="13">
         <v>45127.0</v>
       </c>
-      <c r="D587" s="30">
+      <c r="D587" s="31">
         <v>2023.0</v>
       </c>
       <c r="E587" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="F587" s="24" t="s">
         <v>268</v>
-      </c>
-      <c r="F587" s="24" t="s">
-        <v>269</v>
       </c>
       <c r="G587" s="24">
         <v>212.0</v>
       </c>
       <c r="H587" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I587" s="24" t="s">
         <v>79</v>
@@ -52493,7 +52494,7 @@
       <c r="K587" s="26">
         <v>2.0</v>
       </c>
-      <c r="L587" s="31" t="s">
+      <c r="L587" s="32" t="s">
         <v>71</v>
       </c>
       <c r="M587" s="19" t="s">
@@ -52548,7 +52549,7 @@
     </row>
     <row r="588">
       <c r="A588" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B588" s="12" t="s">
         <v>10</v>
@@ -52556,20 +52557,20 @@
       <c r="C588" s="13">
         <v>45127.0</v>
       </c>
-      <c r="D588" s="30">
+      <c r="D588" s="31">
         <v>2023.0</v>
       </c>
       <c r="E588" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="F588" s="24" t="s">
         <v>268</v>
-      </c>
-      <c r="F588" s="24" t="s">
-        <v>269</v>
       </c>
       <c r="G588" s="24">
         <v>212.0</v>
       </c>
       <c r="H588" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I588" s="24" t="s">
         <v>79</v>
@@ -52580,7 +52581,7 @@
       <c r="K588" s="26">
         <v>2.0</v>
       </c>
-      <c r="L588" s="31" t="s">
+      <c r="L588" s="32" t="s">
         <v>72</v>
       </c>
       <c r="M588" s="19" t="s">
@@ -52635,7 +52636,7 @@
     </row>
     <row r="589">
       <c r="A589" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B589" s="12" t="s">
         <v>10</v>
@@ -52643,20 +52644,20 @@
       <c r="C589" s="13">
         <v>45127.0</v>
       </c>
-      <c r="D589" s="30">
+      <c r="D589" s="31">
         <v>2023.0</v>
       </c>
       <c r="E589" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="F589" s="24" t="s">
         <v>268</v>
-      </c>
-      <c r="F589" s="24" t="s">
-        <v>269</v>
       </c>
       <c r="G589" s="24">
         <v>212.0</v>
       </c>
       <c r="H589" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I589" s="24" t="s">
         <v>79</v>
@@ -52667,7 +52668,7 @@
       <c r="K589" s="26">
         <v>2.0</v>
       </c>
-      <c r="L589" s="31" t="s">
+      <c r="L589" s="32" t="s">
         <v>82</v>
       </c>
       <c r="M589" s="19" t="s">
@@ -52722,7 +52723,7 @@
     </row>
     <row r="590">
       <c r="A590" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B590" s="12" t="s">
         <v>10</v>
@@ -52730,20 +52731,20 @@
       <c r="C590" s="13">
         <v>45127.0</v>
       </c>
-      <c r="D590" s="30">
+      <c r="D590" s="31">
         <v>2023.0</v>
       </c>
       <c r="E590" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="F590" s="24" t="s">
         <v>268</v>
-      </c>
-      <c r="F590" s="24" t="s">
-        <v>269</v>
       </c>
       <c r="G590" s="24">
         <v>212.0</v>
       </c>
       <c r="H590" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I590" s="24" t="s">
         <v>79</v>
@@ -52754,7 +52755,7 @@
       <c r="K590" s="26">
         <v>2.0</v>
       </c>
-      <c r="L590" s="31" t="s">
+      <c r="L590" s="32" t="s">
         <v>73</v>
       </c>
       <c r="M590" s="19" t="s">
@@ -52809,7 +52810,7 @@
     </row>
     <row r="591">
       <c r="A591" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B591" s="12" t="s">
         <v>10</v>
@@ -52817,20 +52818,20 @@
       <c r="C591" s="13">
         <v>45127.0</v>
       </c>
-      <c r="D591" s="30">
+      <c r="D591" s="31">
         <v>2023.0</v>
       </c>
       <c r="E591" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="F591" s="24" t="s">
         <v>268</v>
-      </c>
-      <c r="F591" s="24" t="s">
-        <v>269</v>
       </c>
       <c r="G591" s="24">
         <v>212.0</v>
       </c>
       <c r="H591" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I591" s="24" t="s">
         <v>79</v>
@@ -52841,7 +52842,7 @@
       <c r="K591" s="26">
         <v>2.0</v>
       </c>
-      <c r="L591" s="31" t="s">
+      <c r="L591" s="32" t="s">
         <v>66</v>
       </c>
       <c r="M591" s="19" t="s">
@@ -52896,7 +52897,7 @@
     </row>
     <row r="592">
       <c r="A592" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B592" s="12" t="s">
         <v>10</v>
@@ -52904,20 +52905,20 @@
       <c r="C592" s="13">
         <v>45501.0</v>
       </c>
-      <c r="D592" s="30">
+      <c r="D592" s="31">
         <v>2024.0</v>
       </c>
       <c r="E592" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="F592" s="24" t="s">
         <v>272</v>
-      </c>
-      <c r="F592" s="24" t="s">
-        <v>273</v>
       </c>
       <c r="G592" s="24">
         <v>376.0</v>
       </c>
       <c r="H592" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I592" s="24" t="s">
         <v>229</v>
@@ -52928,7 +52929,7 @@
       <c r="K592" s="26">
         <v>1.0</v>
       </c>
-      <c r="L592" s="31" t="s">
+      <c r="L592" s="32" t="s">
         <v>52</v>
       </c>
       <c r="M592" s="19" t="s">
@@ -52983,7 +52984,7 @@
     </row>
     <row r="593">
       <c r="A593" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B593" s="12" t="s">
         <v>10</v>
@@ -52991,20 +52992,20 @@
       <c r="C593" s="13">
         <v>45501.0</v>
       </c>
-      <c r="D593" s="30">
+      <c r="D593" s="31">
         <v>2024.0</v>
       </c>
       <c r="E593" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="F593" s="24" t="s">
         <v>272</v>
-      </c>
-      <c r="F593" s="24" t="s">
-        <v>273</v>
       </c>
       <c r="G593" s="24">
         <v>376.0</v>
       </c>
       <c r="H593" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I593" s="24" t="s">
         <v>229</v>
@@ -53015,7 +53016,7 @@
       <c r="K593" s="26">
         <v>1.0</v>
       </c>
-      <c r="L593" s="31" t="s">
+      <c r="L593" s="32" t="s">
         <v>49</v>
       </c>
       <c r="M593" s="19" t="s">
@@ -53070,7 +53071,7 @@
     </row>
     <row r="594">
       <c r="A594" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B594" s="12" t="s">
         <v>10</v>
@@ -53078,20 +53079,20 @@
       <c r="C594" s="13">
         <v>45501.0</v>
       </c>
-      <c r="D594" s="30">
+      <c r="D594" s="31">
         <v>2024.0</v>
       </c>
       <c r="E594" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="F594" s="24" t="s">
         <v>272</v>
-      </c>
-      <c r="F594" s="24" t="s">
-        <v>273</v>
       </c>
       <c r="G594" s="24">
         <v>376.0</v>
       </c>
       <c r="H594" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I594" s="24" t="s">
         <v>229</v>
@@ -53102,7 +53103,7 @@
       <c r="K594" s="26">
         <v>1.0</v>
       </c>
-      <c r="L594" s="31" t="s">
+      <c r="L594" s="32" t="s">
         <v>85</v>
       </c>
       <c r="M594" s="19" t="s">
@@ -53157,7 +53158,7 @@
     </row>
     <row r="595">
       <c r="A595" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B595" s="12" t="s">
         <v>10</v>
@@ -53165,20 +53166,20 @@
       <c r="C595" s="13">
         <v>45501.0</v>
       </c>
-      <c r="D595" s="32">
+      <c r="D595" s="33">
         <v>2024.0</v>
       </c>
       <c r="E595" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="F595" s="24" t="s">
         <v>272</v>
-      </c>
-      <c r="F595" s="24" t="s">
-        <v>273</v>
       </c>
       <c r="G595" s="24">
         <v>376.0</v>
       </c>
       <c r="H595" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I595" s="24" t="s">
         <v>229</v>
@@ -53189,7 +53190,7 @@
       <c r="K595" s="26">
         <v>1.0</v>
       </c>
-      <c r="L595" s="31" t="s">
+      <c r="L595" s="32" t="s">
         <v>98</v>
       </c>
       <c r="M595" s="19" t="s">
@@ -53244,7 +53245,7 @@
     </row>
     <row r="596">
       <c r="A596" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B596" s="12" t="s">
         <v>10</v>
@@ -53252,20 +53253,20 @@
       <c r="C596" s="13">
         <v>45501.0</v>
       </c>
-      <c r="D596" s="30">
+      <c r="D596" s="31">
         <v>2024.0</v>
       </c>
       <c r="E596" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="F596" s="24" t="s">
         <v>272</v>
-      </c>
-      <c r="F596" s="24" t="s">
-        <v>273</v>
       </c>
       <c r="G596" s="24">
         <v>376.0</v>
       </c>
       <c r="H596" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I596" s="24" t="s">
         <v>229</v>
@@ -53276,7 +53277,7 @@
       <c r="K596" s="26">
         <v>1.0</v>
       </c>
-      <c r="L596" s="31" t="s">
+      <c r="L596" s="32" t="s">
         <v>68</v>
       </c>
       <c r="M596" s="19" t="s">
@@ -53331,7 +53332,7 @@
     </row>
     <row r="597">
       <c r="A597" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B597" s="12" t="s">
         <v>10</v>
@@ -53339,20 +53340,20 @@
       <c r="C597" s="13">
         <v>45501.0</v>
       </c>
-      <c r="D597" s="30">
+      <c r="D597" s="31">
         <v>2024.0</v>
       </c>
       <c r="E597" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="F597" s="24" t="s">
         <v>272</v>
-      </c>
-      <c r="F597" s="24" t="s">
-        <v>273</v>
       </c>
       <c r="G597" s="24">
         <v>376.0</v>
       </c>
       <c r="H597" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I597" s="24" t="s">
         <v>229</v>
@@ -53363,7 +53364,7 @@
       <c r="K597" s="26">
         <v>1.0</v>
       </c>
-      <c r="L597" s="31" t="s">
+      <c r="L597" s="32" t="s">
         <v>97</v>
       </c>
       <c r="M597" s="19" t="s">
@@ -53418,7 +53419,7 @@
     </row>
     <row r="598">
       <c r="A598" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B598" s="12" t="s">
         <v>10</v>
@@ -53426,20 +53427,20 @@
       <c r="C598" s="13">
         <v>45501.0</v>
       </c>
-      <c r="D598" s="30">
+      <c r="D598" s="31">
         <v>2024.0</v>
       </c>
       <c r="E598" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="F598" s="24" t="s">
         <v>272</v>
-      </c>
-      <c r="F598" s="24" t="s">
-        <v>273</v>
       </c>
       <c r="G598" s="24">
         <v>376.0</v>
       </c>
       <c r="H598" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I598" s="24" t="s">
         <v>229</v>
@@ -53450,7 +53451,7 @@
       <c r="K598" s="26">
         <v>1.0</v>
       </c>
-      <c r="L598" s="31" t="s">
+      <c r="L598" s="32" t="s">
         <v>84</v>
       </c>
       <c r="M598" s="19" t="s">
@@ -53505,7 +53506,7 @@
     </row>
     <row r="599">
       <c r="A599" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B599" s="12" t="s">
         <v>10</v>
@@ -53513,20 +53514,20 @@
       <c r="C599" s="13">
         <v>45501.0</v>
       </c>
-      <c r="D599" s="30">
+      <c r="D599" s="31">
         <v>2024.0</v>
       </c>
       <c r="E599" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="F599" s="24" t="s">
         <v>272</v>
-      </c>
-      <c r="F599" s="24" t="s">
-        <v>273</v>
       </c>
       <c r="G599" s="24">
         <v>376.0</v>
       </c>
       <c r="H599" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I599" s="24" t="s">
         <v>229</v>
@@ -53537,7 +53538,7 @@
       <c r="K599" s="26">
         <v>1.0</v>
       </c>
-      <c r="L599" s="31" t="s">
+      <c r="L599" s="32" t="s">
         <v>48</v>
       </c>
       <c r="M599" s="19" t="s">
@@ -53592,7 +53593,7 @@
     </row>
     <row r="600">
       <c r="A600" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B600" s="12" t="s">
         <v>10</v>
@@ -53600,20 +53601,20 @@
       <c r="C600" s="13">
         <v>45501.0</v>
       </c>
-      <c r="D600" s="30">
+      <c r="D600" s="31">
         <v>2024.0</v>
       </c>
       <c r="E600" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="F600" s="24" t="s">
         <v>272</v>
-      </c>
-      <c r="F600" s="24" t="s">
-        <v>273</v>
       </c>
       <c r="G600" s="24">
         <v>376.0</v>
       </c>
       <c r="H600" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I600" s="24" t="s">
         <v>229</v>
@@ -53624,7 +53625,7 @@
       <c r="K600" s="26">
         <v>1.0</v>
       </c>
-      <c r="L600" s="31" t="s">
+      <c r="L600" s="32" t="s">
         <v>192</v>
       </c>
       <c r="M600" s="19" t="s">
@@ -53679,7 +53680,7 @@
     </row>
     <row r="601">
       <c r="A601" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B601" s="12" t="s">
         <v>10</v>
@@ -53687,20 +53688,20 @@
       <c r="C601" s="13">
         <v>45501.0</v>
       </c>
-      <c r="D601" s="30">
+      <c r="D601" s="31">
         <v>2024.0</v>
       </c>
       <c r="E601" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="F601" s="24" t="s">
         <v>272</v>
-      </c>
-      <c r="F601" s="24" t="s">
-        <v>273</v>
       </c>
       <c r="G601" s="24">
         <v>376.0</v>
       </c>
       <c r="H601" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I601" s="24" t="s">
         <v>229</v>
@@ -53711,7 +53712,7 @@
       <c r="K601" s="26">
         <v>2.0</v>
       </c>
-      <c r="L601" s="29" t="s">
+      <c r="L601" s="30" t="s">
         <v>71</v>
       </c>
       <c r="M601" s="19" t="s">
@@ -53766,7 +53767,7 @@
     </row>
     <row r="602">
       <c r="A602" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B602" s="12" t="s">
         <v>10</v>
@@ -53774,20 +53775,20 @@
       <c r="C602" s="13">
         <v>45501.0</v>
       </c>
-      <c r="D602" s="30">
+      <c r="D602" s="31">
         <v>2024.0</v>
       </c>
       <c r="E602" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="F602" s="24" t="s">
         <v>272</v>
-      </c>
-      <c r="F602" s="24" t="s">
-        <v>273</v>
       </c>
       <c r="G602" s="24">
         <v>376.0</v>
       </c>
       <c r="H602" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I602" s="24" t="s">
         <v>229</v>
@@ -53798,7 +53799,7 @@
       <c r="K602" s="26">
         <v>2.0</v>
       </c>
-      <c r="L602" s="31" t="s">
+      <c r="L602" s="32" t="s">
         <v>72</v>
       </c>
       <c r="M602" s="19" t="s">
@@ -53853,7 +53854,7 @@
     </row>
     <row r="603">
       <c r="A603" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B603" s="12" t="s">
         <v>10</v>
@@ -53861,20 +53862,20 @@
       <c r="C603" s="13">
         <v>45501.0</v>
       </c>
-      <c r="D603" s="30">
+      <c r="D603" s="31">
         <v>2024.0</v>
       </c>
       <c r="E603" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="F603" s="24" t="s">
         <v>272</v>
-      </c>
-      <c r="F603" s="24" t="s">
-        <v>273</v>
       </c>
       <c r="G603" s="24">
         <v>376.0</v>
       </c>
       <c r="H603" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I603" s="24" t="s">
         <v>229</v>
@@ -53885,7 +53886,7 @@
       <c r="K603" s="26">
         <v>2.0</v>
       </c>
-      <c r="L603" s="31" t="s">
+      <c r="L603" s="32" t="s">
         <v>82</v>
       </c>
       <c r="M603" s="19" t="s">
@@ -53940,7 +53941,7 @@
     </row>
     <row r="604">
       <c r="A604" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B604" s="12" t="s">
         <v>10</v>
@@ -53948,20 +53949,20 @@
       <c r="C604" s="13">
         <v>45501.0</v>
       </c>
-      <c r="D604" s="30">
+      <c r="D604" s="31">
         <v>2024.0</v>
       </c>
       <c r="E604" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="F604" s="24" t="s">
         <v>272</v>
-      </c>
-      <c r="F604" s="24" t="s">
-        <v>273</v>
       </c>
       <c r="G604" s="24">
         <v>376.0</v>
       </c>
       <c r="H604" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I604" s="24" t="s">
         <v>229</v>
@@ -53972,7 +53973,7 @@
       <c r="K604" s="26">
         <v>2.0</v>
       </c>
-      <c r="L604" s="31" t="s">
+      <c r="L604" s="32" t="s">
         <v>73</v>
       </c>
       <c r="M604" s="19" t="s">
@@ -54027,7 +54028,7 @@
     </row>
     <row r="605">
       <c r="A605" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B605" s="12" t="s">
         <v>10</v>
@@ -54035,20 +54036,20 @@
       <c r="C605" s="13">
         <v>45501.0</v>
       </c>
-      <c r="D605" s="30">
+      <c r="D605" s="31">
         <v>2024.0</v>
       </c>
       <c r="E605" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="F605" s="24" t="s">
         <v>272</v>
-      </c>
-      <c r="F605" s="24" t="s">
-        <v>273</v>
       </c>
       <c r="G605" s="24">
         <v>376.0</v>
       </c>
       <c r="H605" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I605" s="24" t="s">
         <v>229</v>
@@ -54059,7 +54060,7 @@
       <c r="K605" s="26">
         <v>2.0</v>
       </c>
-      <c r="L605" s="31" t="s">
+      <c r="L605" s="32" t="s">
         <v>66</v>
       </c>
       <c r="M605" s="19" t="s">
@@ -54113,45 +54114,43 @@
       </c>
     </row>
     <row r="606">
-      <c r="A606" s="33"/>
-      <c r="B606" s="34"/>
-      <c r="C606" s="34"/>
-      <c r="D606" s="35"/>
-      <c r="E606" s="36"/>
-      <c r="F606" s="36"/>
-      <c r="G606" s="37"/>
-      <c r="H606" s="36"/>
-      <c r="I606" s="38"/>
-      <c r="J606" s="39"/>
-      <c r="K606" s="39"/>
-      <c r="L606" s="40"/>
-      <c r="M606" s="41"/>
-      <c r="N606" s="41"/>
-      <c r="O606" s="41"/>
-      <c r="P606" s="42"/>
-      <c r="Q606" s="42"/>
-      <c r="R606" s="42"/>
-      <c r="S606" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="T606" s="42"/>
-      <c r="U606" s="43"/>
-      <c r="V606" s="44"/>
-      <c r="W606" s="41"/>
-      <c r="X606" s="41"/>
-      <c r="Y606" s="41"/>
-      <c r="Z606" s="41"/>
-      <c r="AA606" s="41"/>
-      <c r="AB606" s="34"/>
+      <c r="A606" s="34"/>
+      <c r="B606" s="35"/>
+      <c r="C606" s="35"/>
+      <c r="D606" s="36"/>
+      <c r="E606" s="37"/>
+      <c r="F606" s="37"/>
+      <c r="G606" s="38"/>
+      <c r="H606" s="37"/>
+      <c r="I606" s="39"/>
+      <c r="J606" s="40"/>
+      <c r="K606" s="40"/>
+      <c r="L606" s="41"/>
+      <c r="M606" s="42"/>
+      <c r="N606" s="42"/>
+      <c r="O606" s="42"/>
+      <c r="P606" s="43"/>
+      <c r="Q606" s="43"/>
+      <c r="R606" s="43"/>
+      <c r="S606" s="11"/>
+      <c r="T606" s="43"/>
+      <c r="U606" s="44"/>
+      <c r="V606" s="45"/>
+      <c r="W606" s="42"/>
+      <c r="X606" s="42"/>
+      <c r="Y606" s="42"/>
+      <c r="Z606" s="42"/>
+      <c r="AA606" s="42"/>
+      <c r="AB606" s="35"/>
     </row>
     <row r="607">
       <c r="A607" s="11"/>
       <c r="B607" s="13"/>
       <c r="C607" s="11"/>
-      <c r="D607" s="45"/>
+      <c r="D607" s="46"/>
       <c r="E607" s="11"/>
-      <c r="F607" s="45"/>
-      <c r="G607" s="45"/>
+      <c r="F607" s="46"/>
+      <c r="G607" s="46"/>
       <c r="H607" s="21"/>
       <c r="I607" s="11"/>
       <c r="J607" s="21"/>
@@ -54163,13 +54162,13 @@
       <c r="P607" s="20"/>
       <c r="Q607" s="20"/>
       <c r="R607" s="13"/>
-      <c r="S607" s="33"/>
+      <c r="S607" s="34"/>
       <c r="T607" s="11"/>
-      <c r="U607" s="33"/>
+      <c r="U607" s="34"/>
       <c r="V607" s="11"/>
-      <c r="W607" s="43"/>
-      <c r="X607" s="34"/>
-      <c r="Y607" s="46"/>
+      <c r="W607" s="44"/>
+      <c r="X607" s="35"/>
+      <c r="Y607" s="47"/>
       <c r="Z607" s="11"/>
       <c r="AA607" s="11"/>
       <c r="AB607" s="11"/>
@@ -54178,10 +54177,10 @@
       <c r="A608" s="11"/>
       <c r="B608" s="13"/>
       <c r="C608" s="11"/>
-      <c r="D608" s="45"/>
+      <c r="D608" s="46"/>
       <c r="E608" s="11"/>
-      <c r="F608" s="45"/>
-      <c r="G608" s="45"/>
+      <c r="F608" s="46"/>
+      <c r="G608" s="46"/>
       <c r="H608" s="21"/>
       <c r="I608" s="11"/>
       <c r="J608" s="21"/>
@@ -54193,13 +54192,13 @@
       <c r="P608" s="20"/>
       <c r="Q608" s="20"/>
       <c r="R608" s="13"/>
-      <c r="S608" s="33"/>
+      <c r="S608" s="34"/>
       <c r="T608" s="11"/>
-      <c r="U608" s="33"/>
+      <c r="U608" s="34"/>
       <c r="V608" s="11"/>
-      <c r="W608" s="43"/>
-      <c r="X608" s="34"/>
-      <c r="Y608" s="46"/>
+      <c r="W608" s="44"/>
+      <c r="X608" s="35"/>
+      <c r="Y608" s="47"/>
       <c r="Z608" s="11"/>
       <c r="AA608" s="11"/>
       <c r="AB608" s="11"/>
@@ -54210,8 +54209,8 @@
       <c r="C609" s="11"/>
       <c r="D609" s="11"/>
       <c r="E609" s="11"/>
-      <c r="F609" s="45"/>
-      <c r="G609" s="45"/>
+      <c r="F609" s="46"/>
+      <c r="G609" s="46"/>
       <c r="H609" s="21"/>
       <c r="I609" s="11"/>
       <c r="J609" s="21"/>
@@ -54223,13 +54222,13 @@
       <c r="P609" s="20"/>
       <c r="Q609" s="20"/>
       <c r="R609" s="13"/>
-      <c r="S609" s="33"/>
+      <c r="S609" s="34"/>
       <c r="T609" s="11"/>
-      <c r="U609" s="33"/>
+      <c r="U609" s="34"/>
       <c r="V609" s="11"/>
-      <c r="W609" s="43"/>
-      <c r="X609" s="34"/>
-      <c r="Y609" s="46"/>
+      <c r="W609" s="44"/>
+      <c r="X609" s="35"/>
+      <c r="Y609" s="47"/>
       <c r="Z609" s="11"/>
       <c r="AA609" s="11"/>
       <c r="AB609" s="11"/>
@@ -54240,8 +54239,8 @@
       <c r="C610" s="11"/>
       <c r="D610" s="11"/>
       <c r="E610" s="11"/>
-      <c r="F610" s="45"/>
-      <c r="G610" s="45"/>
+      <c r="F610" s="46"/>
+      <c r="G610" s="46"/>
       <c r="H610" s="21"/>
       <c r="I610" s="11"/>
       <c r="J610" s="21"/>
@@ -54253,13 +54252,13 @@
       <c r="P610" s="20"/>
       <c r="Q610" s="20"/>
       <c r="R610" s="13"/>
-      <c r="S610" s="33"/>
+      <c r="S610" s="34"/>
       <c r="T610" s="11"/>
-      <c r="U610" s="33"/>
+      <c r="U610" s="34"/>
       <c r="V610" s="11"/>
-      <c r="W610" s="43"/>
-      <c r="X610" s="34"/>
-      <c r="Y610" s="46"/>
+      <c r="W610" s="44"/>
+      <c r="X610" s="35"/>
+      <c r="Y610" s="47"/>
       <c r="Z610" s="11"/>
       <c r="AA610" s="11"/>
       <c r="AB610" s="11"/>
@@ -54268,10 +54267,10 @@
       <c r="A611" s="11"/>
       <c r="B611" s="13"/>
       <c r="C611" s="11"/>
-      <c r="D611" s="45"/>
+      <c r="D611" s="46"/>
       <c r="E611" s="11"/>
-      <c r="F611" s="45"/>
-      <c r="G611" s="45"/>
+      <c r="F611" s="46"/>
+      <c r="G611" s="46"/>
       <c r="H611" s="21"/>
       <c r="I611" s="11"/>
       <c r="J611" s="21"/>
@@ -54283,13 +54282,13 @@
       <c r="P611" s="20"/>
       <c r="Q611" s="20"/>
       <c r="R611" s="13"/>
-      <c r="S611" s="33"/>
+      <c r="S611" s="34"/>
       <c r="T611" s="11"/>
-      <c r="U611" s="33"/>
+      <c r="U611" s="34"/>
       <c r="V611" s="11"/>
-      <c r="W611" s="43"/>
-      <c r="X611" s="34"/>
-      <c r="Y611" s="46"/>
+      <c r="W611" s="44"/>
+      <c r="X611" s="35"/>
+      <c r="Y611" s="47"/>
       <c r="Z611" s="11"/>
       <c r="AA611" s="11"/>
       <c r="AB611" s="11"/>
@@ -54298,10 +54297,10 @@
       <c r="A612" s="11"/>
       <c r="B612" s="13"/>
       <c r="C612" s="11"/>
-      <c r="D612" s="45"/>
+      <c r="D612" s="46"/>
       <c r="E612" s="11"/>
-      <c r="F612" s="45"/>
-      <c r="G612" s="45"/>
+      <c r="F612" s="46"/>
+      <c r="G612" s="46"/>
       <c r="H612" s="21"/>
       <c r="I612" s="11"/>
       <c r="J612" s="21"/>
@@ -54313,13 +54312,13 @@
       <c r="P612" s="20"/>
       <c r="Q612" s="20"/>
       <c r="R612" s="13"/>
-      <c r="S612" s="33"/>
+      <c r="S612" s="34"/>
       <c r="T612" s="11"/>
-      <c r="U612" s="33"/>
+      <c r="U612" s="34"/>
       <c r="V612" s="11"/>
-      <c r="W612" s="43"/>
-      <c r="X612" s="34"/>
-      <c r="Y612" s="46"/>
+      <c r="W612" s="44"/>
+      <c r="X612" s="35"/>
+      <c r="Y612" s="47"/>
       <c r="Z612" s="11"/>
       <c r="AA612" s="11"/>
       <c r="AB612" s="11"/>
@@ -54328,10 +54327,10 @@
       <c r="A613" s="11"/>
       <c r="B613" s="13"/>
       <c r="C613" s="11"/>
-      <c r="D613" s="45"/>
+      <c r="D613" s="46"/>
       <c r="E613" s="11"/>
-      <c r="F613" s="45"/>
-      <c r="G613" s="45"/>
+      <c r="F613" s="46"/>
+      <c r="G613" s="46"/>
       <c r="H613" s="21"/>
       <c r="I613" s="11"/>
       <c r="J613" s="21"/>
@@ -54343,13 +54342,13 @@
       <c r="P613" s="20"/>
       <c r="Q613" s="20"/>
       <c r="R613" s="13"/>
-      <c r="S613" s="33"/>
+      <c r="S613" s="34"/>
       <c r="T613" s="11"/>
-      <c r="U613" s="33"/>
+      <c r="U613" s="34"/>
       <c r="V613" s="11"/>
-      <c r="W613" s="43"/>
-      <c r="X613" s="34"/>
-      <c r="Y613" s="46"/>
+      <c r="W613" s="44"/>
+      <c r="X613" s="35"/>
+      <c r="Y613" s="47"/>
       <c r="Z613" s="11"/>
       <c r="AA613" s="11"/>
       <c r="AB613" s="11"/>
@@ -54358,10 +54357,10 @@
       <c r="A614" s="11"/>
       <c r="B614" s="13"/>
       <c r="C614" s="11"/>
-      <c r="D614" s="45"/>
+      <c r="D614" s="46"/>
       <c r="E614" s="11"/>
-      <c r="F614" s="45"/>
-      <c r="G614" s="45"/>
+      <c r="F614" s="46"/>
+      <c r="G614" s="46"/>
       <c r="H614" s="21"/>
       <c r="I614" s="11"/>
       <c r="J614" s="21"/>
@@ -54373,13 +54372,13 @@
       <c r="P614" s="20"/>
       <c r="Q614" s="20"/>
       <c r="R614" s="13"/>
-      <c r="S614" s="33"/>
+      <c r="S614" s="34"/>
       <c r="T614" s="11"/>
-      <c r="U614" s="33"/>
+      <c r="U614" s="34"/>
       <c r="V614" s="11"/>
-      <c r="W614" s="43"/>
-      <c r="X614" s="34"/>
-      <c r="Y614" s="46"/>
+      <c r="W614" s="44"/>
+      <c r="X614" s="35"/>
+      <c r="Y614" s="47"/>
       <c r="Z614" s="11"/>
       <c r="AA614" s="11"/>
       <c r="AB614" s="11"/>
@@ -54388,10 +54387,10 @@
       <c r="A615" s="11"/>
       <c r="B615" s="13"/>
       <c r="C615" s="11"/>
-      <c r="D615" s="45"/>
+      <c r="D615" s="46"/>
       <c r="E615" s="11"/>
-      <c r="F615" s="45"/>
-      <c r="G615" s="45"/>
+      <c r="F615" s="46"/>
+      <c r="G615" s="46"/>
       <c r="H615" s="21"/>
       <c r="I615" s="11"/>
       <c r="J615" s="21"/>
@@ -54403,13 +54402,13 @@
       <c r="P615" s="20"/>
       <c r="Q615" s="20"/>
       <c r="R615" s="13"/>
-      <c r="S615" s="33"/>
+      <c r="S615" s="34"/>
       <c r="T615" s="11"/>
-      <c r="U615" s="33"/>
+      <c r="U615" s="34"/>
       <c r="V615" s="11"/>
-      <c r="W615" s="43"/>
-      <c r="X615" s="34"/>
-      <c r="Y615" s="46"/>
+      <c r="W615" s="44"/>
+      <c r="X615" s="35"/>
+      <c r="Y615" s="47"/>
       <c r="Z615" s="11"/>
       <c r="AA615" s="11"/>
       <c r="AB615" s="11"/>
@@ -54420,8 +54419,8 @@
       <c r="C616" s="11"/>
       <c r="D616" s="11"/>
       <c r="E616" s="11"/>
-      <c r="F616" s="45"/>
-      <c r="G616" s="45"/>
+      <c r="F616" s="46"/>
+      <c r="G616" s="46"/>
       <c r="H616" s="21"/>
       <c r="I616" s="11"/>
       <c r="J616" s="21"/>
@@ -54433,13 +54432,13 @@
       <c r="P616" s="20"/>
       <c r="Q616" s="20"/>
       <c r="R616" s="13"/>
-      <c r="S616" s="33"/>
+      <c r="S616" s="34"/>
       <c r="T616" s="11"/>
-      <c r="U616" s="33"/>
+      <c r="U616" s="34"/>
       <c r="V616" s="11"/>
-      <c r="W616" s="43"/>
-      <c r="X616" s="34"/>
-      <c r="Y616" s="46"/>
+      <c r="W616" s="44"/>
+      <c r="X616" s="35"/>
+      <c r="Y616" s="47"/>
       <c r="Z616" s="11"/>
       <c r="AA616" s="11"/>
       <c r="AB616" s="11"/>
@@ -54450,8 +54449,8 @@
       <c r="C617" s="11"/>
       <c r="D617" s="11"/>
       <c r="E617" s="11"/>
-      <c r="F617" s="45"/>
-      <c r="G617" s="45"/>
+      <c r="F617" s="46"/>
+      <c r="G617" s="46"/>
       <c r="H617" s="21"/>
       <c r="I617" s="11"/>
       <c r="J617" s="21"/>
@@ -54463,13 +54462,13 @@
       <c r="P617" s="20"/>
       <c r="Q617" s="20"/>
       <c r="R617" s="13"/>
-      <c r="S617" s="33"/>
+      <c r="S617" s="34"/>
       <c r="T617" s="11"/>
-      <c r="U617" s="33"/>
+      <c r="U617" s="34"/>
       <c r="V617" s="11"/>
-      <c r="W617" s="43"/>
-      <c r="X617" s="34"/>
-      <c r="Y617" s="46"/>
+      <c r="W617" s="44"/>
+      <c r="X617" s="35"/>
+      <c r="Y617" s="47"/>
       <c r="Z617" s="11"/>
       <c r="AA617" s="11"/>
       <c r="AB617" s="11"/>
@@ -54478,10 +54477,10 @@
       <c r="A618" s="11"/>
       <c r="B618" s="13"/>
       <c r="C618" s="11"/>
-      <c r="D618" s="45"/>
+      <c r="D618" s="46"/>
       <c r="E618" s="11"/>
-      <c r="F618" s="45"/>
-      <c r="G618" s="45"/>
+      <c r="F618" s="46"/>
+      <c r="G618" s="46"/>
       <c r="H618" s="21"/>
       <c r="I618" s="11"/>
       <c r="J618" s="21"/>
@@ -54493,13 +54492,13 @@
       <c r="P618" s="20"/>
       <c r="Q618" s="20"/>
       <c r="R618" s="13"/>
-      <c r="S618" s="33"/>
+      <c r="S618" s="34"/>
       <c r="T618" s="11"/>
-      <c r="U618" s="33"/>
+      <c r="U618" s="34"/>
       <c r="V618" s="11"/>
-      <c r="W618" s="43"/>
-      <c r="X618" s="34"/>
-      <c r="Y618" s="46"/>
+      <c r="W618" s="44"/>
+      <c r="X618" s="35"/>
+      <c r="Y618" s="47"/>
       <c r="Z618" s="11"/>
       <c r="AA618" s="11"/>
       <c r="AB618" s="11"/>
@@ -54508,10 +54507,10 @@
       <c r="A619" s="11"/>
       <c r="B619" s="13"/>
       <c r="C619" s="11"/>
-      <c r="D619" s="45"/>
+      <c r="D619" s="46"/>
       <c r="E619" s="11"/>
-      <c r="F619" s="45"/>
-      <c r="G619" s="45"/>
+      <c r="F619" s="46"/>
+      <c r="G619" s="46"/>
       <c r="H619" s="21"/>
       <c r="I619" s="11"/>
       <c r="J619" s="21"/>
@@ -54525,11 +54524,11 @@
       <c r="R619" s="13"/>
       <c r="S619" s="11"/>
       <c r="T619" s="11"/>
-      <c r="U619" s="33"/>
+      <c r="U619" s="34"/>
       <c r="V619" s="11"/>
-      <c r="W619" s="43"/>
-      <c r="X619" s="34"/>
-      <c r="Y619" s="46"/>
+      <c r="W619" s="44"/>
+      <c r="X619" s="35"/>
+      <c r="Y619" s="47"/>
       <c r="Z619" s="11"/>
       <c r="AA619" s="11"/>
       <c r="AB619" s="11"/>
@@ -54538,10 +54537,10 @@
       <c r="A620" s="11"/>
       <c r="B620" s="13"/>
       <c r="C620" s="11"/>
-      <c r="D620" s="45"/>
+      <c r="D620" s="46"/>
       <c r="E620" s="11"/>
-      <c r="F620" s="45"/>
-      <c r="G620" s="45"/>
+      <c r="F620" s="46"/>
+      <c r="G620" s="46"/>
       <c r="H620" s="21"/>
       <c r="I620" s="11"/>
       <c r="J620" s="21"/>
@@ -54555,11 +54554,11 @@
       <c r="R620" s="13"/>
       <c r="S620" s="11"/>
       <c r="T620" s="11"/>
-      <c r="U620" s="33"/>
+      <c r="U620" s="34"/>
       <c r="V620" s="11"/>
-      <c r="W620" s="43"/>
-      <c r="X620" s="34"/>
-      <c r="Y620" s="46"/>
+      <c r="W620" s="44"/>
+      <c r="X620" s="35"/>
+      <c r="Y620" s="47"/>
       <c r="Z620" s="11"/>
       <c r="AA620" s="11"/>
       <c r="AB620" s="11"/>
@@ -54570,8 +54569,8 @@
       <c r="C621" s="11"/>
       <c r="D621" s="11"/>
       <c r="E621" s="11"/>
-      <c r="F621" s="45"/>
-      <c r="G621" s="45"/>
+      <c r="F621" s="46"/>
+      <c r="G621" s="46"/>
       <c r="H621" s="21"/>
       <c r="I621" s="11"/>
       <c r="J621" s="21"/>
@@ -54585,11 +54584,11 @@
       <c r="R621" s="13"/>
       <c r="S621" s="11"/>
       <c r="T621" s="11"/>
-      <c r="U621" s="33"/>
+      <c r="U621" s="34"/>
       <c r="V621" s="11"/>
-      <c r="W621" s="43"/>
-      <c r="X621" s="34"/>
-      <c r="Y621" s="46"/>
+      <c r="W621" s="44"/>
+      <c r="X621" s="35"/>
+      <c r="Y621" s="47"/>
       <c r="Z621" s="11"/>
       <c r="AA621" s="11"/>
       <c r="AB621" s="11"/>
@@ -54600,8 +54599,8 @@
       <c r="C622" s="11"/>
       <c r="D622" s="11"/>
       <c r="E622" s="11"/>
-      <c r="F622" s="45"/>
-      <c r="G622" s="45"/>
+      <c r="F622" s="46"/>
+      <c r="G622" s="46"/>
       <c r="H622" s="21"/>
       <c r="I622" s="11"/>
       <c r="J622" s="21"/>
@@ -54615,11 +54614,11 @@
       <c r="R622" s="13"/>
       <c r="S622" s="11"/>
       <c r="T622" s="11"/>
-      <c r="U622" s="33"/>
+      <c r="U622" s="34"/>
       <c r="V622" s="11"/>
-      <c r="W622" s="43"/>
-      <c r="X622" s="34"/>
-      <c r="Y622" s="46"/>
+      <c r="W622" s="44"/>
+      <c r="X622" s="35"/>
+      <c r="Y622" s="47"/>
       <c r="Z622" s="11"/>
       <c r="AA622" s="11"/>
       <c r="AB622" s="11"/>
@@ -54630,8 +54629,8 @@
       <c r="C623" s="11"/>
       <c r="D623" s="11"/>
       <c r="E623" s="11"/>
-      <c r="F623" s="45"/>
-      <c r="G623" s="45"/>
+      <c r="F623" s="46"/>
+      <c r="G623" s="46"/>
       <c r="H623" s="21"/>
       <c r="I623" s="11"/>
       <c r="J623" s="21"/>
@@ -54645,11 +54644,11 @@
       <c r="R623" s="13"/>
       <c r="S623" s="11"/>
       <c r="T623" s="11"/>
-      <c r="U623" s="33"/>
+      <c r="U623" s="34"/>
       <c r="V623" s="11"/>
-      <c r="W623" s="43"/>
-      <c r="X623" s="34"/>
-      <c r="Y623" s="46"/>
+      <c r="W623" s="44"/>
+      <c r="X623" s="35"/>
+      <c r="Y623" s="47"/>
       <c r="Z623" s="11"/>
       <c r="AA623" s="11"/>
       <c r="AB623" s="11"/>
@@ -54658,10 +54657,10 @@
       <c r="A624" s="11"/>
       <c r="B624" s="13"/>
       <c r="C624" s="11"/>
-      <c r="D624" s="45"/>
+      <c r="D624" s="46"/>
       <c r="E624" s="11"/>
-      <c r="F624" s="45"/>
-      <c r="G624" s="45"/>
+      <c r="F624" s="46"/>
+      <c r="G624" s="46"/>
       <c r="H624" s="21"/>
       <c r="I624" s="11"/>
       <c r="J624" s="21"/>
@@ -54675,11 +54674,11 @@
       <c r="R624" s="13"/>
       <c r="S624" s="11"/>
       <c r="T624" s="11"/>
-      <c r="U624" s="33"/>
+      <c r="U624" s="34"/>
       <c r="V624" s="11"/>
-      <c r="W624" s="43"/>
-      <c r="X624" s="34"/>
-      <c r="Y624" s="46"/>
+      <c r="W624" s="44"/>
+      <c r="X624" s="35"/>
+      <c r="Y624" s="47"/>
       <c r="Z624" s="11"/>
       <c r="AA624" s="11"/>
       <c r="AB624" s="11"/>
@@ -54688,10 +54687,10 @@
       <c r="A625" s="11"/>
       <c r="B625" s="13"/>
       <c r="C625" s="11"/>
-      <c r="D625" s="45"/>
+      <c r="D625" s="46"/>
       <c r="E625" s="11"/>
-      <c r="F625" s="45"/>
-      <c r="G625" s="45"/>
+      <c r="F625" s="46"/>
+      <c r="G625" s="46"/>
       <c r="H625" s="21"/>
       <c r="I625" s="11"/>
       <c r="J625" s="21"/>
@@ -54705,11 +54704,11 @@
       <c r="R625" s="13"/>
       <c r="S625" s="11"/>
       <c r="T625" s="11"/>
-      <c r="U625" s="33"/>
+      <c r="U625" s="34"/>
       <c r="V625" s="11"/>
-      <c r="W625" s="43"/>
-      <c r="X625" s="34"/>
-      <c r="Y625" s="46"/>
+      <c r="W625" s="44"/>
+      <c r="X625" s="35"/>
+      <c r="Y625" s="47"/>
       <c r="Z625" s="11"/>
       <c r="AA625" s="11"/>
       <c r="AB625" s="11"/>
@@ -54718,10 +54717,10 @@
       <c r="A626" s="11"/>
       <c r="B626" s="13"/>
       <c r="C626" s="11"/>
-      <c r="D626" s="45"/>
+      <c r="D626" s="46"/>
       <c r="E626" s="11"/>
-      <c r="F626" s="45"/>
-      <c r="G626" s="45"/>
+      <c r="F626" s="46"/>
+      <c r="G626" s="46"/>
       <c r="H626" s="21"/>
       <c r="I626" s="11"/>
       <c r="J626" s="21"/>
@@ -54735,11 +54734,11 @@
       <c r="R626" s="13"/>
       <c r="S626" s="11"/>
       <c r="T626" s="11"/>
-      <c r="U626" s="33"/>
+      <c r="U626" s="34"/>
       <c r="V626" s="11"/>
-      <c r="W626" s="43"/>
-      <c r="X626" s="34"/>
-      <c r="Y626" s="46"/>
+      <c r="W626" s="44"/>
+      <c r="X626" s="35"/>
+      <c r="Y626" s="47"/>
       <c r="Z626" s="11"/>
       <c r="AA626" s="11"/>
       <c r="AB626" s="11"/>
@@ -54748,10 +54747,10 @@
       <c r="A627" s="11"/>
       <c r="B627" s="13"/>
       <c r="C627" s="11"/>
-      <c r="D627" s="45"/>
+      <c r="D627" s="46"/>
       <c r="E627" s="11"/>
-      <c r="F627" s="45"/>
-      <c r="G627" s="45"/>
+      <c r="F627" s="46"/>
+      <c r="G627" s="46"/>
       <c r="H627" s="21"/>
       <c r="I627" s="11"/>
       <c r="J627" s="21"/>
@@ -54765,11 +54764,11 @@
       <c r="R627" s="13"/>
       <c r="S627" s="11"/>
       <c r="T627" s="11"/>
-      <c r="U627" s="33"/>
+      <c r="U627" s="34"/>
       <c r="V627" s="11"/>
-      <c r="W627" s="43"/>
-      <c r="X627" s="34"/>
-      <c r="Y627" s="46"/>
+      <c r="W627" s="44"/>
+      <c r="X627" s="35"/>
+      <c r="Y627" s="47"/>
       <c r="Z627" s="11"/>
       <c r="AA627" s="11"/>
       <c r="AB627" s="11"/>
@@ -54778,10 +54777,10 @@
       <c r="A628" s="11"/>
       <c r="B628" s="13"/>
       <c r="C628" s="11"/>
-      <c r="D628" s="45"/>
+      <c r="D628" s="46"/>
       <c r="E628" s="11"/>
-      <c r="F628" s="45"/>
-      <c r="G628" s="45"/>
+      <c r="F628" s="46"/>
+      <c r="G628" s="46"/>
       <c r="H628" s="21"/>
       <c r="I628" s="11"/>
       <c r="J628" s="21"/>
@@ -54795,11 +54794,11 @@
       <c r="R628" s="13"/>
       <c r="S628" s="11"/>
       <c r="T628" s="11"/>
-      <c r="U628" s="33"/>
+      <c r="U628" s="34"/>
       <c r="V628" s="11"/>
-      <c r="W628" s="43"/>
-      <c r="X628" s="34"/>
-      <c r="Y628" s="46"/>
+      <c r="W628" s="44"/>
+      <c r="X628" s="35"/>
+      <c r="Y628" s="47"/>
       <c r="Z628" s="11"/>
       <c r="AA628" s="11"/>
       <c r="AB628" s="11"/>
@@ -54810,8 +54809,8 @@
       <c r="C629" s="11"/>
       <c r="D629" s="11"/>
       <c r="E629" s="11"/>
-      <c r="F629" s="45"/>
-      <c r="G629" s="45"/>
+      <c r="F629" s="46"/>
+      <c r="G629" s="46"/>
       <c r="H629" s="21"/>
       <c r="I629" s="11"/>
       <c r="J629" s="21"/>
@@ -54825,11 +54824,11 @@
       <c r="R629" s="13"/>
       <c r="S629" s="11"/>
       <c r="T629" s="11"/>
-      <c r="U629" s="33"/>
+      <c r="U629" s="34"/>
       <c r="V629" s="11"/>
-      <c r="W629" s="43"/>
-      <c r="X629" s="34"/>
-      <c r="Y629" s="46"/>
+      <c r="W629" s="44"/>
+      <c r="X629" s="35"/>
+      <c r="Y629" s="47"/>
       <c r="Z629" s="11"/>
       <c r="AA629" s="11"/>
       <c r="AB629" s="11"/>
@@ -54840,8 +54839,8 @@
       <c r="C630" s="11"/>
       <c r="D630" s="11"/>
       <c r="E630" s="11"/>
-      <c r="F630" s="45"/>
-      <c r="G630" s="45"/>
+      <c r="F630" s="46"/>
+      <c r="G630" s="46"/>
       <c r="H630" s="21"/>
       <c r="I630" s="11"/>
       <c r="J630" s="21"/>
@@ -54855,11 +54854,11 @@
       <c r="R630" s="13"/>
       <c r="S630" s="11"/>
       <c r="T630" s="11"/>
-      <c r="U630" s="33"/>
+      <c r="U630" s="34"/>
       <c r="V630" s="11"/>
-      <c r="W630" s="43"/>
-      <c r="X630" s="34"/>
-      <c r="Y630" s="46"/>
+      <c r="W630" s="44"/>
+      <c r="X630" s="35"/>
+      <c r="Y630" s="47"/>
       <c r="Z630" s="11"/>
       <c r="AA630" s="11"/>
       <c r="AB630" s="11"/>
@@ -54870,8 +54869,8 @@
       <c r="C631" s="11"/>
       <c r="D631" s="11"/>
       <c r="E631" s="11"/>
-      <c r="F631" s="45"/>
-      <c r="G631" s="45"/>
+      <c r="F631" s="46"/>
+      <c r="G631" s="46"/>
       <c r="H631" s="21"/>
       <c r="I631" s="11"/>
       <c r="J631" s="21"/>
@@ -54885,11 +54884,11 @@
       <c r="R631" s="13"/>
       <c r="S631" s="11"/>
       <c r="T631" s="11"/>
-      <c r="U631" s="33"/>
+      <c r="U631" s="34"/>
       <c r="V631" s="11"/>
-      <c r="W631" s="43"/>
-      <c r="X631" s="34"/>
-      <c r="Y631" s="46"/>
+      <c r="W631" s="44"/>
+      <c r="X631" s="35"/>
+      <c r="Y631" s="47"/>
       <c r="Z631" s="11"/>
       <c r="AA631" s="11"/>
       <c r="AB631" s="11"/>
@@ -54898,10 +54897,10 @@
       <c r="A632" s="11"/>
       <c r="B632" s="13"/>
       <c r="C632" s="11"/>
-      <c r="D632" s="45"/>
+      <c r="D632" s="46"/>
       <c r="E632" s="11"/>
-      <c r="F632" s="45"/>
-      <c r="G632" s="45"/>
+      <c r="F632" s="46"/>
+      <c r="G632" s="46"/>
       <c r="H632" s="21"/>
       <c r="I632" s="11"/>
       <c r="J632" s="21"/>
@@ -54915,11 +54914,11 @@
       <c r="R632" s="13"/>
       <c r="S632" s="11"/>
       <c r="T632" s="11"/>
-      <c r="U632" s="33"/>
+      <c r="U632" s="34"/>
       <c r="V632" s="11"/>
-      <c r="W632" s="43"/>
-      <c r="X632" s="34"/>
-      <c r="Y632" s="46"/>
+      <c r="W632" s="44"/>
+      <c r="X632" s="35"/>
+      <c r="Y632" s="47"/>
       <c r="Z632" s="11"/>
       <c r="AA632" s="11"/>
       <c r="AB632" s="11"/>
@@ -54928,10 +54927,10 @@
       <c r="A633" s="11"/>
       <c r="B633" s="13"/>
       <c r="C633" s="11"/>
-      <c r="D633" s="45"/>
+      <c r="D633" s="46"/>
       <c r="E633" s="11"/>
-      <c r="F633" s="45"/>
-      <c r="G633" s="45"/>
+      <c r="F633" s="46"/>
+      <c r="G633" s="46"/>
       <c r="H633" s="21"/>
       <c r="I633" s="11"/>
       <c r="J633" s="21"/>
@@ -54945,11 +54944,11 @@
       <c r="R633" s="13"/>
       <c r="S633" s="11"/>
       <c r="T633" s="11"/>
-      <c r="U633" s="33"/>
+      <c r="U633" s="34"/>
       <c r="V633" s="11"/>
-      <c r="W633" s="43"/>
-      <c r="X633" s="34"/>
-      <c r="Y633" s="46"/>
+      <c r="W633" s="44"/>
+      <c r="X633" s="35"/>
+      <c r="Y633" s="47"/>
       <c r="Z633" s="11"/>
       <c r="AA633" s="11"/>
       <c r="AB633" s="11"/>
@@ -54958,10 +54957,10 @@
       <c r="A634" s="11"/>
       <c r="B634" s="13"/>
       <c r="C634" s="11"/>
-      <c r="D634" s="45"/>
+      <c r="D634" s="46"/>
       <c r="E634" s="11"/>
-      <c r="F634" s="45"/>
-      <c r="G634" s="45"/>
+      <c r="F634" s="46"/>
+      <c r="G634" s="46"/>
       <c r="H634" s="21"/>
       <c r="I634" s="11"/>
       <c r="J634" s="21"/>
@@ -54975,11 +54974,11 @@
       <c r="R634" s="13"/>
       <c r="S634" s="11"/>
       <c r="T634" s="11"/>
-      <c r="U634" s="33"/>
+      <c r="U634" s="34"/>
       <c r="V634" s="11"/>
-      <c r="W634" s="43"/>
-      <c r="X634" s="34"/>
-      <c r="Y634" s="46"/>
+      <c r="W634" s="44"/>
+      <c r="X634" s="35"/>
+      <c r="Y634" s="47"/>
       <c r="Z634" s="11"/>
       <c r="AA634" s="11"/>
       <c r="AB634" s="11"/>
@@ -54988,10 +54987,10 @@
       <c r="A635" s="11"/>
       <c r="B635" s="13"/>
       <c r="C635" s="11"/>
-      <c r="D635" s="45"/>
+      <c r="D635" s="46"/>
       <c r="E635" s="11"/>
-      <c r="F635" s="45"/>
-      <c r="G635" s="45"/>
+      <c r="F635" s="46"/>
+      <c r="G635" s="46"/>
       <c r="H635" s="21"/>
       <c r="I635" s="11"/>
       <c r="J635" s="21"/>
@@ -55005,11 +55004,11 @@
       <c r="R635" s="13"/>
       <c r="S635" s="11"/>
       <c r="T635" s="11"/>
-      <c r="U635" s="33"/>
+      <c r="U635" s="34"/>
       <c r="V635" s="11"/>
-      <c r="W635" s="43"/>
-      <c r="X635" s="34"/>
-      <c r="Y635" s="46"/>
+      <c r="W635" s="44"/>
+      <c r="X635" s="35"/>
+      <c r="Y635" s="47"/>
       <c r="Z635" s="11"/>
       <c r="AA635" s="11"/>
       <c r="AB635" s="11"/>
@@ -55018,10 +55017,10 @@
       <c r="A636" s="11"/>
       <c r="B636" s="13"/>
       <c r="C636" s="11"/>
-      <c r="D636" s="45"/>
+      <c r="D636" s="46"/>
       <c r="E636" s="11"/>
-      <c r="F636" s="45"/>
-      <c r="G636" s="45"/>
+      <c r="F636" s="46"/>
+      <c r="G636" s="46"/>
       <c r="H636" s="21"/>
       <c r="I636" s="11"/>
       <c r="J636" s="21"/>
@@ -55035,11 +55034,11 @@
       <c r="R636" s="13"/>
       <c r="S636" s="11"/>
       <c r="T636" s="11"/>
-      <c r="U636" s="33"/>
+      <c r="U636" s="34"/>
       <c r="V636" s="11"/>
-      <c r="W636" s="43"/>
-      <c r="X636" s="34"/>
-      <c r="Y636" s="46"/>
+      <c r="W636" s="44"/>
+      <c r="X636" s="35"/>
+      <c r="Y636" s="47"/>
       <c r="Z636" s="11"/>
       <c r="AA636" s="11"/>
       <c r="AB636" s="11"/>
@@ -55048,10 +55047,10 @@
       <c r="A637" s="11"/>
       <c r="B637" s="13"/>
       <c r="C637" s="11"/>
-      <c r="D637" s="45"/>
+      <c r="D637" s="46"/>
       <c r="E637" s="11"/>
-      <c r="F637" s="45"/>
-      <c r="G637" s="45"/>
+      <c r="F637" s="46"/>
+      <c r="G637" s="46"/>
       <c r="H637" s="21"/>
       <c r="I637" s="11"/>
       <c r="J637" s="21"/>
@@ -55065,11 +55064,11 @@
       <c r="R637" s="13"/>
       <c r="S637" s="11"/>
       <c r="T637" s="11"/>
-      <c r="U637" s="33"/>
+      <c r="U637" s="34"/>
       <c r="V637" s="11"/>
-      <c r="W637" s="43"/>
-      <c r="X637" s="34"/>
-      <c r="Y637" s="46"/>
+      <c r="W637" s="44"/>
+      <c r="X637" s="35"/>
+      <c r="Y637" s="47"/>
       <c r="Z637" s="11"/>
       <c r="AA637" s="11"/>
       <c r="AB637" s="11"/>
@@ -55078,10 +55077,10 @@
       <c r="A638" s="11"/>
       <c r="B638" s="13"/>
       <c r="C638" s="11"/>
-      <c r="D638" s="45"/>
+      <c r="D638" s="46"/>
       <c r="E638" s="11"/>
-      <c r="F638" s="45"/>
-      <c r="G638" s="45"/>
+      <c r="F638" s="46"/>
+      <c r="G638" s="46"/>
       <c r="H638" s="21"/>
       <c r="I638" s="11"/>
       <c r="J638" s="21"/>
@@ -55095,11 +55094,11 @@
       <c r="R638" s="13"/>
       <c r="S638" s="11"/>
       <c r="T638" s="11"/>
-      <c r="U638" s="33"/>
+      <c r="U638" s="34"/>
       <c r="V638" s="11"/>
-      <c r="W638" s="43"/>
-      <c r="X638" s="34"/>
-      <c r="Y638" s="46"/>
+      <c r="W638" s="44"/>
+      <c r="X638" s="35"/>
+      <c r="Y638" s="47"/>
       <c r="Z638" s="11"/>
       <c r="AA638" s="11"/>
       <c r="AB638" s="11"/>
@@ -55108,10 +55107,10 @@
       <c r="A639" s="11"/>
       <c r="B639" s="13"/>
       <c r="C639" s="11"/>
-      <c r="D639" s="45"/>
+      <c r="D639" s="46"/>
       <c r="E639" s="11"/>
-      <c r="F639" s="45"/>
-      <c r="G639" s="45"/>
+      <c r="F639" s="46"/>
+      <c r="G639" s="46"/>
       <c r="H639" s="21"/>
       <c r="I639" s="11"/>
       <c r="J639" s="21"/>
@@ -55125,11 +55124,11 @@
       <c r="R639" s="13"/>
       <c r="S639" s="11"/>
       <c r="T639" s="11"/>
-      <c r="U639" s="33"/>
+      <c r="U639" s="34"/>
       <c r="V639" s="11"/>
-      <c r="W639" s="43"/>
-      <c r="X639" s="34"/>
-      <c r="Y639" s="46"/>
+      <c r="W639" s="44"/>
+      <c r="X639" s="35"/>
+      <c r="Y639" s="47"/>
       <c r="Z639" s="11"/>
       <c r="AA639" s="11"/>
       <c r="AB639" s="11"/>
@@ -55140,8 +55139,8 @@
       <c r="C640" s="11"/>
       <c r="D640" s="11"/>
       <c r="E640" s="11"/>
-      <c r="F640" s="45"/>
-      <c r="G640" s="45"/>
+      <c r="F640" s="46"/>
+      <c r="G640" s="46"/>
       <c r="H640" s="21"/>
       <c r="I640" s="11"/>
       <c r="J640" s="21"/>
@@ -55155,11 +55154,11 @@
       <c r="R640" s="13"/>
       <c r="S640" s="11"/>
       <c r="T640" s="11"/>
-      <c r="U640" s="33"/>
+      <c r="U640" s="34"/>
       <c r="V640" s="11"/>
-      <c r="W640" s="43"/>
-      <c r="X640" s="34"/>
-      <c r="Y640" s="46"/>
+      <c r="W640" s="44"/>
+      <c r="X640" s="35"/>
+      <c r="Y640" s="47"/>
       <c r="Z640" s="11"/>
       <c r="AA640" s="11"/>
       <c r="AB640" s="11"/>
@@ -55170,8 +55169,8 @@
       <c r="C641" s="11"/>
       <c r="D641" s="11"/>
       <c r="E641" s="11"/>
-      <c r="F641" s="45"/>
-      <c r="G641" s="45"/>
+      <c r="F641" s="46"/>
+      <c r="G641" s="46"/>
       <c r="H641" s="21"/>
       <c r="I641" s="11"/>
       <c r="J641" s="21"/>
@@ -55185,11 +55184,11 @@
       <c r="R641" s="13"/>
       <c r="S641" s="11"/>
       <c r="T641" s="11"/>
-      <c r="U641" s="33"/>
+      <c r="U641" s="34"/>
       <c r="V641" s="11"/>
-      <c r="W641" s="43"/>
-      <c r="X641" s="34"/>
-      <c r="Y641" s="46"/>
+      <c r="W641" s="44"/>
+      <c r="X641" s="35"/>
+      <c r="Y641" s="47"/>
       <c r="Z641" s="11"/>
       <c r="AA641" s="11"/>
       <c r="AB641" s="11"/>
@@ -55200,8 +55199,8 @@
       <c r="C642" s="11"/>
       <c r="D642" s="11"/>
       <c r="E642" s="11"/>
-      <c r="F642" s="45"/>
-      <c r="G642" s="45"/>
+      <c r="F642" s="46"/>
+      <c r="G642" s="46"/>
       <c r="H642" s="21"/>
       <c r="I642" s="11"/>
       <c r="J642" s="21"/>
@@ -55215,11 +55214,11 @@
       <c r="R642" s="13"/>
       <c r="S642" s="11"/>
       <c r="T642" s="11"/>
-      <c r="U642" s="33"/>
+      <c r="U642" s="34"/>
       <c r="V642" s="11"/>
-      <c r="W642" s="43"/>
-      <c r="X642" s="34"/>
-      <c r="Y642" s="46"/>
+      <c r="W642" s="44"/>
+      <c r="X642" s="35"/>
+      <c r="Y642" s="47"/>
       <c r="Z642" s="11"/>
       <c r="AA642" s="11"/>
       <c r="AB642" s="11"/>
@@ -55228,10 +55227,10 @@
       <c r="A643" s="11"/>
       <c r="B643" s="13"/>
       <c r="C643" s="11"/>
-      <c r="D643" s="45"/>
+      <c r="D643" s="46"/>
       <c r="E643" s="11"/>
-      <c r="F643" s="45"/>
-      <c r="G643" s="45"/>
+      <c r="F643" s="46"/>
+      <c r="G643" s="46"/>
       <c r="H643" s="21"/>
       <c r="I643" s="11"/>
       <c r="J643" s="21"/>
@@ -55245,11 +55244,11 @@
       <c r="R643" s="13"/>
       <c r="S643" s="11"/>
       <c r="T643" s="11"/>
-      <c r="U643" s="33"/>
+      <c r="U643" s="34"/>
       <c r="V643" s="11"/>
-      <c r="W643" s="43"/>
-      <c r="X643" s="34"/>
-      <c r="Y643" s="46"/>
+      <c r="W643" s="44"/>
+      <c r="X643" s="35"/>
+      <c r="Y643" s="47"/>
       <c r="Z643" s="11"/>
       <c r="AA643" s="11"/>
       <c r="AB643" s="11"/>
@@ -55258,10 +55257,10 @@
       <c r="A644" s="11"/>
       <c r="B644" s="13"/>
       <c r="C644" s="11"/>
-      <c r="D644" s="45"/>
+      <c r="D644" s="46"/>
       <c r="E644" s="11"/>
-      <c r="F644" s="45"/>
-      <c r="G644" s="45"/>
+      <c r="F644" s="46"/>
+      <c r="G644" s="46"/>
       <c r="H644" s="21"/>
       <c r="I644" s="11"/>
       <c r="J644" s="21"/>
@@ -55275,11 +55274,11 @@
       <c r="R644" s="13"/>
       <c r="S644" s="11"/>
       <c r="T644" s="11"/>
-      <c r="U644" s="33"/>
+      <c r="U644" s="34"/>
       <c r="V644" s="11"/>
-      <c r="W644" s="43"/>
-      <c r="X644" s="34"/>
-      <c r="Y644" s="46"/>
+      <c r="W644" s="44"/>
+      <c r="X644" s="35"/>
+      <c r="Y644" s="47"/>
       <c r="Z644" s="11"/>
       <c r="AA644" s="11"/>
       <c r="AB644" s="11"/>
@@ -55288,10 +55287,10 @@
       <c r="A645" s="11"/>
       <c r="B645" s="13"/>
       <c r="C645" s="11"/>
-      <c r="D645" s="45"/>
+      <c r="D645" s="46"/>
       <c r="E645" s="11"/>
-      <c r="F645" s="45"/>
-      <c r="G645" s="45"/>
+      <c r="F645" s="46"/>
+      <c r="G645" s="46"/>
       <c r="H645" s="21"/>
       <c r="I645" s="11"/>
       <c r="J645" s="21"/>
@@ -55305,11 +55304,11 @@
       <c r="R645" s="13"/>
       <c r="S645" s="11"/>
       <c r="T645" s="11"/>
-      <c r="U645" s="33"/>
+      <c r="U645" s="34"/>
       <c r="V645" s="11"/>
-      <c r="W645" s="43"/>
-      <c r="X645" s="34"/>
-      <c r="Y645" s="46"/>
+      <c r="W645" s="44"/>
+      <c r="X645" s="35"/>
+      <c r="Y645" s="47"/>
       <c r="Z645" s="11"/>
       <c r="AA645" s="11"/>
       <c r="AB645" s="11"/>
@@ -55318,10 +55317,10 @@
       <c r="A646" s="11"/>
       <c r="B646" s="13"/>
       <c r="C646" s="11"/>
-      <c r="D646" s="45"/>
+      <c r="D646" s="46"/>
       <c r="E646" s="11"/>
-      <c r="F646" s="45"/>
-      <c r="G646" s="45"/>
+      <c r="F646" s="46"/>
+      <c r="G646" s="46"/>
       <c r="H646" s="21"/>
       <c r="I646" s="11"/>
       <c r="J646" s="21"/>
@@ -55335,11 +55334,11 @@
       <c r="R646" s="13"/>
       <c r="S646" s="11"/>
       <c r="T646" s="11"/>
-      <c r="U646" s="33"/>
+      <c r="U646" s="34"/>
       <c r="V646" s="11"/>
-      <c r="W646" s="43"/>
-      <c r="X646" s="34"/>
-      <c r="Y646" s="46"/>
+      <c r="W646" s="44"/>
+      <c r="X646" s="35"/>
+      <c r="Y646" s="47"/>
       <c r="Z646" s="11"/>
       <c r="AA646" s="11"/>
       <c r="AB646" s="11"/>
@@ -55348,10 +55347,10 @@
       <c r="A647" s="11"/>
       <c r="B647" s="13"/>
       <c r="C647" s="11"/>
-      <c r="D647" s="45"/>
+      <c r="D647" s="46"/>
       <c r="E647" s="11"/>
-      <c r="F647" s="45"/>
-      <c r="G647" s="45"/>
+      <c r="F647" s="46"/>
+      <c r="G647" s="46"/>
       <c r="H647" s="21"/>
       <c r="I647" s="11"/>
       <c r="J647" s="21"/>
@@ -55365,11 +55364,11 @@
       <c r="R647" s="13"/>
       <c r="S647" s="11"/>
       <c r="T647" s="11"/>
-      <c r="U647" s="33"/>
+      <c r="U647" s="34"/>
       <c r="V647" s="11"/>
-      <c r="W647" s="43"/>
-      <c r="X647" s="34"/>
-      <c r="Y647" s="46"/>
+      <c r="W647" s="44"/>
+      <c r="X647" s="35"/>
+      <c r="Y647" s="47"/>
       <c r="Z647" s="11"/>
       <c r="AA647" s="11"/>
       <c r="AB647" s="11"/>
@@ -55378,10 +55377,10 @@
       <c r="A648" s="11"/>
       <c r="B648" s="13"/>
       <c r="C648" s="11"/>
-      <c r="D648" s="45"/>
+      <c r="D648" s="46"/>
       <c r="E648" s="11"/>
-      <c r="F648" s="45"/>
-      <c r="G648" s="45"/>
+      <c r="F648" s="46"/>
+      <c r="G648" s="46"/>
       <c r="H648" s="21"/>
       <c r="I648" s="11"/>
       <c r="J648" s="21"/>
@@ -55395,11 +55394,11 @@
       <c r="R648" s="13"/>
       <c r="S648" s="11"/>
       <c r="T648" s="11"/>
-      <c r="U648" s="33"/>
+      <c r="U648" s="34"/>
       <c r="V648" s="11"/>
-      <c r="W648" s="43"/>
-      <c r="X648" s="34"/>
-      <c r="Y648" s="46"/>
+      <c r="W648" s="44"/>
+      <c r="X648" s="35"/>
+      <c r="Y648" s="47"/>
       <c r="Z648" s="11"/>
       <c r="AA648" s="11"/>
       <c r="AB648" s="11"/>
@@ -55408,10 +55407,10 @@
       <c r="A649" s="11"/>
       <c r="B649" s="13"/>
       <c r="C649" s="11"/>
-      <c r="D649" s="45"/>
+      <c r="D649" s="46"/>
       <c r="E649" s="11"/>
-      <c r="F649" s="45"/>
-      <c r="G649" s="45"/>
+      <c r="F649" s="46"/>
+      <c r="G649" s="46"/>
       <c r="H649" s="21"/>
       <c r="I649" s="11"/>
       <c r="J649" s="21"/>
@@ -55425,11 +55424,11 @@
       <c r="R649" s="13"/>
       <c r="S649" s="11"/>
       <c r="T649" s="11"/>
-      <c r="U649" s="33"/>
+      <c r="U649" s="34"/>
       <c r="V649" s="11"/>
-      <c r="W649" s="43"/>
-      <c r="X649" s="34"/>
-      <c r="Y649" s="46"/>
+      <c r="W649" s="44"/>
+      <c r="X649" s="35"/>
+      <c r="Y649" s="47"/>
       <c r="Z649" s="11"/>
       <c r="AA649" s="11"/>
       <c r="AB649" s="11"/>
@@ -55438,10 +55437,10 @@
       <c r="A650" s="11"/>
       <c r="B650" s="13"/>
       <c r="C650" s="11"/>
-      <c r="D650" s="45"/>
+      <c r="D650" s="46"/>
       <c r="E650" s="11"/>
-      <c r="F650" s="45"/>
-      <c r="G650" s="45"/>
+      <c r="F650" s="46"/>
+      <c r="G650" s="46"/>
       <c r="H650" s="21"/>
       <c r="I650" s="11"/>
       <c r="J650" s="21"/>
@@ -55455,11 +55454,11 @@
       <c r="R650" s="13"/>
       <c r="S650" s="11"/>
       <c r="T650" s="11"/>
-      <c r="U650" s="33"/>
+      <c r="U650" s="34"/>
       <c r="V650" s="11"/>
-      <c r="W650" s="43"/>
-      <c r="X650" s="34"/>
-      <c r="Y650" s="46"/>
+      <c r="W650" s="44"/>
+      <c r="X650" s="35"/>
+      <c r="Y650" s="47"/>
       <c r="Z650" s="11"/>
       <c r="AA650" s="11"/>
       <c r="AB650" s="11"/>
@@ -55468,10 +55467,10 @@
       <c r="A651" s="11"/>
       <c r="B651" s="13"/>
       <c r="C651" s="11"/>
-      <c r="D651" s="45"/>
+      <c r="D651" s="46"/>
       <c r="E651" s="11"/>
-      <c r="F651" s="45"/>
-      <c r="G651" s="45"/>
+      <c r="F651" s="46"/>
+      <c r="G651" s="46"/>
       <c r="H651" s="21"/>
       <c r="I651" s="11"/>
       <c r="J651" s="21"/>
@@ -55485,11 +55484,11 @@
       <c r="R651" s="13"/>
       <c r="S651" s="11"/>
       <c r="T651" s="11"/>
-      <c r="U651" s="33"/>
+      <c r="U651" s="34"/>
       <c r="V651" s="11"/>
-      <c r="W651" s="43"/>
-      <c r="X651" s="34"/>
-      <c r="Y651" s="46"/>
+      <c r="W651" s="44"/>
+      <c r="X651" s="35"/>
+      <c r="Y651" s="47"/>
       <c r="Z651" s="11"/>
       <c r="AA651" s="11"/>
       <c r="AB651" s="11"/>
@@ -55498,10 +55497,10 @@
       <c r="A652" s="11"/>
       <c r="B652" s="13"/>
       <c r="C652" s="11"/>
-      <c r="D652" s="45"/>
+      <c r="D652" s="46"/>
       <c r="E652" s="11"/>
-      <c r="F652" s="45"/>
-      <c r="G652" s="45"/>
+      <c r="F652" s="46"/>
+      <c r="G652" s="46"/>
       <c r="H652" s="21"/>
       <c r="I652" s="11"/>
       <c r="J652" s="21"/>
@@ -55515,11 +55514,11 @@
       <c r="R652" s="13"/>
       <c r="S652" s="11"/>
       <c r="T652" s="11"/>
-      <c r="U652" s="33"/>
+      <c r="U652" s="34"/>
       <c r="V652" s="11"/>
-      <c r="W652" s="43"/>
-      <c r="X652" s="34"/>
-      <c r="Y652" s="46"/>
+      <c r="W652" s="44"/>
+      <c r="X652" s="35"/>
+      <c r="Y652" s="47"/>
       <c r="Z652" s="11"/>
       <c r="AA652" s="11"/>
       <c r="AB652" s="11"/>
@@ -55528,10 +55527,10 @@
       <c r="A653" s="11"/>
       <c r="B653" s="13"/>
       <c r="C653" s="11"/>
-      <c r="D653" s="45"/>
+      <c r="D653" s="46"/>
       <c r="E653" s="11"/>
-      <c r="F653" s="45"/>
-      <c r="G653" s="45"/>
+      <c r="F653" s="46"/>
+      <c r="G653" s="46"/>
       <c r="H653" s="21"/>
       <c r="I653" s="11"/>
       <c r="J653" s="21"/>
@@ -55545,11 +55544,11 @@
       <c r="R653" s="13"/>
       <c r="S653" s="11"/>
       <c r="T653" s="11"/>
-      <c r="U653" s="33"/>
+      <c r="U653" s="34"/>
       <c r="V653" s="11"/>
-      <c r="W653" s="43"/>
-      <c r="X653" s="34"/>
-      <c r="Y653" s="46"/>
+      <c r="W653" s="44"/>
+      <c r="X653" s="35"/>
+      <c r="Y653" s="47"/>
       <c r="Z653" s="11"/>
       <c r="AA653" s="11"/>
       <c r="AB653" s="11"/>
@@ -55558,10 +55557,10 @@
       <c r="A654" s="11"/>
       <c r="B654" s="13"/>
       <c r="C654" s="11"/>
-      <c r="D654" s="45"/>
+      <c r="D654" s="46"/>
       <c r="E654" s="11"/>
-      <c r="F654" s="45"/>
-      <c r="G654" s="45"/>
+      <c r="F654" s="46"/>
+      <c r="G654" s="46"/>
       <c r="H654" s="21"/>
       <c r="I654" s="11"/>
       <c r="J654" s="21"/>
@@ -55575,11 +55574,11 @@
       <c r="R654" s="13"/>
       <c r="S654" s="11"/>
       <c r="T654" s="11"/>
-      <c r="U654" s="33"/>
+      <c r="U654" s="34"/>
       <c r="V654" s="11"/>
-      <c r="W654" s="43"/>
-      <c r="X654" s="34"/>
-      <c r="Y654" s="46"/>
+      <c r="W654" s="44"/>
+      <c r="X654" s="35"/>
+      <c r="Y654" s="47"/>
       <c r="Z654" s="11"/>
       <c r="AA654" s="11"/>
       <c r="AB654" s="11"/>
@@ -55588,10 +55587,10 @@
       <c r="A655" s="11"/>
       <c r="B655" s="13"/>
       <c r="C655" s="11"/>
-      <c r="D655" s="45"/>
+      <c r="D655" s="46"/>
       <c r="E655" s="11"/>
-      <c r="F655" s="45"/>
-      <c r="G655" s="45"/>
+      <c r="F655" s="46"/>
+      <c r="G655" s="46"/>
       <c r="H655" s="21"/>
       <c r="I655" s="11"/>
       <c r="J655" s="21"/>
@@ -55605,11 +55604,11 @@
       <c r="R655" s="13"/>
       <c r="S655" s="11"/>
       <c r="T655" s="11"/>
-      <c r="U655" s="33"/>
+      <c r="U655" s="34"/>
       <c r="V655" s="11"/>
-      <c r="W655" s="43"/>
-      <c r="X655" s="34"/>
-      <c r="Y655" s="46"/>
+      <c r="W655" s="44"/>
+      <c r="X655" s="35"/>
+      <c r="Y655" s="47"/>
       <c r="Z655" s="11"/>
       <c r="AA655" s="11"/>
       <c r="AB655" s="11"/>
@@ -55618,10 +55617,10 @@
       <c r="A656" s="11"/>
       <c r="B656" s="13"/>
       <c r="C656" s="11"/>
-      <c r="D656" s="45"/>
+      <c r="D656" s="46"/>
       <c r="E656" s="11"/>
-      <c r="F656" s="45"/>
-      <c r="G656" s="45"/>
+      <c r="F656" s="46"/>
+      <c r="G656" s="46"/>
       <c r="H656" s="21"/>
       <c r="I656" s="11"/>
       <c r="J656" s="21"/>
@@ -55635,11 +55634,11 @@
       <c r="R656" s="13"/>
       <c r="S656" s="11"/>
       <c r="T656" s="11"/>
-      <c r="U656" s="33"/>
+      <c r="U656" s="34"/>
       <c r="V656" s="11"/>
-      <c r="W656" s="43"/>
-      <c r="X656" s="34"/>
-      <c r="Y656" s="46"/>
+      <c r="W656" s="44"/>
+      <c r="X656" s="35"/>
+      <c r="Y656" s="47"/>
       <c r="Z656" s="11"/>
       <c r="AA656" s="11"/>
       <c r="AB656" s="11"/>
@@ -55650,8 +55649,8 @@
       <c r="C657" s="11"/>
       <c r="D657" s="11"/>
       <c r="E657" s="11"/>
-      <c r="F657" s="45"/>
-      <c r="G657" s="45"/>
+      <c r="F657" s="46"/>
+      <c r="G657" s="46"/>
       <c r="H657" s="21"/>
       <c r="I657" s="11"/>
       <c r="J657" s="21"/>
@@ -55665,11 +55664,11 @@
       <c r="R657" s="13"/>
       <c r="S657" s="11"/>
       <c r="T657" s="11"/>
-      <c r="U657" s="33"/>
+      <c r="U657" s="34"/>
       <c r="V657" s="11"/>
-      <c r="W657" s="43"/>
-      <c r="X657" s="34"/>
-      <c r="Y657" s="46"/>
+      <c r="W657" s="44"/>
+      <c r="X657" s="35"/>
+      <c r="Y657" s="47"/>
       <c r="Z657" s="11"/>
       <c r="AA657" s="11"/>
       <c r="AB657" s="11"/>
@@ -55680,8 +55679,8 @@
       <c r="C658" s="11"/>
       <c r="D658" s="11"/>
       <c r="E658" s="11"/>
-      <c r="F658" s="45"/>
-      <c r="G658" s="45"/>
+      <c r="F658" s="46"/>
+      <c r="G658" s="46"/>
       <c r="H658" s="21"/>
       <c r="I658" s="11"/>
       <c r="J658" s="21"/>
@@ -55695,11 +55694,11 @@
       <c r="R658" s="13"/>
       <c r="S658" s="11"/>
       <c r="T658" s="11"/>
-      <c r="U658" s="33"/>
+      <c r="U658" s="34"/>
       <c r="V658" s="11"/>
-      <c r="W658" s="43"/>
-      <c r="X658" s="34"/>
-      <c r="Y658" s="46"/>
+      <c r="W658" s="44"/>
+      <c r="X658" s="35"/>
+      <c r="Y658" s="47"/>
       <c r="Z658" s="11"/>
       <c r="AA658" s="11"/>
       <c r="AB658" s="11"/>
@@ -55708,10 +55707,10 @@
       <c r="A659" s="11"/>
       <c r="B659" s="13"/>
       <c r="C659" s="11"/>
-      <c r="D659" s="45"/>
+      <c r="D659" s="46"/>
       <c r="E659" s="11"/>
-      <c r="F659" s="45"/>
-      <c r="G659" s="45"/>
+      <c r="F659" s="46"/>
+      <c r="G659" s="46"/>
       <c r="H659" s="21"/>
       <c r="I659" s="11"/>
       <c r="J659" s="21"/>
@@ -55725,11 +55724,11 @@
       <c r="R659" s="13"/>
       <c r="S659" s="11"/>
       <c r="T659" s="11"/>
-      <c r="U659" s="33"/>
+      <c r="U659" s="34"/>
       <c r="V659" s="11"/>
-      <c r="W659" s="43"/>
-      <c r="X659" s="34"/>
-      <c r="Y659" s="46"/>
+      <c r="W659" s="44"/>
+      <c r="X659" s="35"/>
+      <c r="Y659" s="47"/>
       <c r="Z659" s="11"/>
       <c r="AA659" s="11"/>
       <c r="AB659" s="11"/>
@@ -55738,10 +55737,10 @@
       <c r="A660" s="11"/>
       <c r="B660" s="13"/>
       <c r="C660" s="11"/>
-      <c r="D660" s="45"/>
+      <c r="D660" s="46"/>
       <c r="E660" s="11"/>
-      <c r="F660" s="45"/>
-      <c r="G660" s="45"/>
+      <c r="F660" s="46"/>
+      <c r="G660" s="46"/>
       <c r="H660" s="21"/>
       <c r="I660" s="11"/>
       <c r="J660" s="21"/>
@@ -55755,11 +55754,11 @@
       <c r="R660" s="13"/>
       <c r="S660" s="11"/>
       <c r="T660" s="11"/>
-      <c r="U660" s="33"/>
+      <c r="U660" s="34"/>
       <c r="V660" s="11"/>
-      <c r="W660" s="43"/>
-      <c r="X660" s="34"/>
-      <c r="Y660" s="46"/>
+      <c r="W660" s="44"/>
+      <c r="X660" s="35"/>
+      <c r="Y660" s="47"/>
       <c r="Z660" s="11"/>
       <c r="AA660" s="11"/>
       <c r="AB660" s="11"/>
@@ -55768,10 +55767,10 @@
       <c r="A661" s="11"/>
       <c r="B661" s="13"/>
       <c r="C661" s="11"/>
-      <c r="D661" s="45"/>
+      <c r="D661" s="46"/>
       <c r="E661" s="11"/>
-      <c r="F661" s="45"/>
-      <c r="G661" s="45"/>
+      <c r="F661" s="46"/>
+      <c r="G661" s="46"/>
       <c r="H661" s="21"/>
       <c r="I661" s="11"/>
       <c r="J661" s="21"/>
@@ -55785,11 +55784,11 @@
       <c r="R661" s="13"/>
       <c r="S661" s="11"/>
       <c r="T661" s="11"/>
-      <c r="U661" s="33"/>
+      <c r="U661" s="34"/>
       <c r="V661" s="11"/>
-      <c r="W661" s="43"/>
-      <c r="X661" s="34"/>
-      <c r="Y661" s="46"/>
+      <c r="W661" s="44"/>
+      <c r="X661" s="35"/>
+      <c r="Y661" s="47"/>
       <c r="Z661" s="11"/>
       <c r="AA661" s="11"/>
       <c r="AB661" s="11"/>
@@ -55798,10 +55797,10 @@
       <c r="A662" s="11"/>
       <c r="B662" s="13"/>
       <c r="C662" s="11"/>
-      <c r="D662" s="45"/>
+      <c r="D662" s="46"/>
       <c r="E662" s="11"/>
-      <c r="F662" s="45"/>
-      <c r="G662" s="45"/>
+      <c r="F662" s="46"/>
+      <c r="G662" s="46"/>
       <c r="H662" s="21"/>
       <c r="I662" s="11"/>
       <c r="J662" s="21"/>
@@ -55815,11 +55814,11 @@
       <c r="R662" s="13"/>
       <c r="S662" s="11"/>
       <c r="T662" s="11"/>
-      <c r="U662" s="33"/>
+      <c r="U662" s="34"/>
       <c r="V662" s="11"/>
-      <c r="W662" s="43"/>
-      <c r="X662" s="34"/>
-      <c r="Y662" s="46"/>
+      <c r="W662" s="44"/>
+      <c r="X662" s="35"/>
+      <c r="Y662" s="47"/>
       <c r="Z662" s="11"/>
       <c r="AA662" s="11"/>
       <c r="AB662" s="11"/>
@@ -55828,10 +55827,10 @@
       <c r="A663" s="11"/>
       <c r="B663" s="13"/>
       <c r="C663" s="11"/>
-      <c r="D663" s="45"/>
+      <c r="D663" s="46"/>
       <c r="E663" s="11"/>
-      <c r="F663" s="45"/>
-      <c r="G663" s="45"/>
+      <c r="F663" s="46"/>
+      <c r="G663" s="46"/>
       <c r="H663" s="21"/>
       <c r="I663" s="11"/>
       <c r="J663" s="21"/>
@@ -55845,11 +55844,11 @@
       <c r="R663" s="13"/>
       <c r="S663" s="11"/>
       <c r="T663" s="11"/>
-      <c r="U663" s="33"/>
+      <c r="U663" s="34"/>
       <c r="V663" s="11"/>
-      <c r="W663" s="43"/>
-      <c r="X663" s="34"/>
-      <c r="Y663" s="46"/>
+      <c r="W663" s="44"/>
+      <c r="X663" s="35"/>
+      <c r="Y663" s="47"/>
       <c r="Z663" s="11"/>
       <c r="AA663" s="11"/>
       <c r="AB663" s="11"/>
@@ -55858,10 +55857,10 @@
       <c r="A664" s="11"/>
       <c r="B664" s="13"/>
       <c r="C664" s="11"/>
-      <c r="D664" s="45"/>
+      <c r="D664" s="46"/>
       <c r="E664" s="11"/>
-      <c r="F664" s="45"/>
-      <c r="G664" s="45"/>
+      <c r="F664" s="46"/>
+      <c r="G664" s="46"/>
       <c r="H664" s="21"/>
       <c r="I664" s="11"/>
       <c r="J664" s="21"/>
@@ -55875,11 +55874,11 @@
       <c r="R664" s="13"/>
       <c r="S664" s="11"/>
       <c r="T664" s="11"/>
-      <c r="U664" s="33"/>
+      <c r="U664" s="34"/>
       <c r="V664" s="11"/>
-      <c r="W664" s="43"/>
-      <c r="X664" s="34"/>
-      <c r="Y664" s="46"/>
+      <c r="W664" s="44"/>
+      <c r="X664" s="35"/>
+      <c r="Y664" s="47"/>
       <c r="Z664" s="11"/>
       <c r="AA664" s="11"/>
       <c r="AB664" s="11"/>
@@ -55888,10 +55887,10 @@
       <c r="A665" s="11"/>
       <c r="B665" s="13"/>
       <c r="C665" s="11"/>
-      <c r="D665" s="45"/>
+      <c r="D665" s="46"/>
       <c r="E665" s="11"/>
-      <c r="F665" s="45"/>
-      <c r="G665" s="45"/>
+      <c r="F665" s="46"/>
+      <c r="G665" s="46"/>
       <c r="H665" s="21"/>
       <c r="I665" s="11"/>
       <c r="J665" s="21"/>
@@ -55905,11 +55904,11 @@
       <c r="R665" s="13"/>
       <c r="S665" s="11"/>
       <c r="T665" s="11"/>
-      <c r="U665" s="33"/>
+      <c r="U665" s="34"/>
       <c r="V665" s="11"/>
-      <c r="W665" s="43"/>
-      <c r="X665" s="34"/>
-      <c r="Y665" s="46"/>
+      <c r="W665" s="44"/>
+      <c r="X665" s="35"/>
+      <c r="Y665" s="47"/>
       <c r="Z665" s="11"/>
       <c r="AA665" s="11"/>
       <c r="AB665" s="11"/>
@@ -55918,10 +55917,10 @@
       <c r="A666" s="11"/>
       <c r="B666" s="13"/>
       <c r="C666" s="11"/>
-      <c r="D666" s="45"/>
+      <c r="D666" s="46"/>
       <c r="E666" s="11"/>
-      <c r="F666" s="45"/>
-      <c r="G666" s="45"/>
+      <c r="F666" s="46"/>
+      <c r="G666" s="46"/>
       <c r="H666" s="21"/>
       <c r="I666" s="11"/>
       <c r="J666" s="21"/>
@@ -55935,11 +55934,11 @@
       <c r="R666" s="13"/>
       <c r="S666" s="11"/>
       <c r="T666" s="11"/>
-      <c r="U666" s="33"/>
+      <c r="U666" s="34"/>
       <c r="V666" s="11"/>
-      <c r="W666" s="43"/>
-      <c r="X666" s="34"/>
-      <c r="Y666" s="46"/>
+      <c r="W666" s="44"/>
+      <c r="X666" s="35"/>
+      <c r="Y666" s="47"/>
       <c r="Z666" s="11"/>
       <c r="AA666" s="11"/>
       <c r="AB666" s="11"/>
@@ -55948,10 +55947,10 @@
       <c r="A667" s="11"/>
       <c r="B667" s="13"/>
       <c r="C667" s="11"/>
-      <c r="D667" s="45"/>
+      <c r="D667" s="46"/>
       <c r="E667" s="11"/>
-      <c r="F667" s="45"/>
-      <c r="G667" s="45"/>
+      <c r="F667" s="46"/>
+      <c r="G667" s="46"/>
       <c r="H667" s="21"/>
       <c r="I667" s="11"/>
       <c r="J667" s="21"/>
@@ -55965,11 +55964,11 @@
       <c r="R667" s="13"/>
       <c r="S667" s="11"/>
       <c r="T667" s="11"/>
-      <c r="U667" s="33"/>
+      <c r="U667" s="34"/>
       <c r="V667" s="11"/>
-      <c r="W667" s="43"/>
-      <c r="X667" s="34"/>
-      <c r="Y667" s="46"/>
+      <c r="W667" s="44"/>
+      <c r="X667" s="35"/>
+      <c r="Y667" s="47"/>
       <c r="Z667" s="11"/>
       <c r="AA667" s="11"/>
       <c r="AB667" s="11"/>
@@ -55980,8 +55979,8 @@
       <c r="C668" s="11"/>
       <c r="D668" s="11"/>
       <c r="E668" s="11"/>
-      <c r="F668" s="45"/>
-      <c r="G668" s="45"/>
+      <c r="F668" s="46"/>
+      <c r="G668" s="46"/>
       <c r="H668" s="21"/>
       <c r="I668" s="11"/>
       <c r="J668" s="21"/>
@@ -55995,11 +55994,11 @@
       <c r="R668" s="13"/>
       <c r="S668" s="11"/>
       <c r="T668" s="11"/>
-      <c r="U668" s="33"/>
+      <c r="U668" s="34"/>
       <c r="V668" s="11"/>
-      <c r="W668" s="43"/>
-      <c r="X668" s="34"/>
-      <c r="Y668" s="46"/>
+      <c r="W668" s="44"/>
+      <c r="X668" s="35"/>
+      <c r="Y668" s="47"/>
       <c r="Z668" s="11"/>
       <c r="AA668" s="11"/>
       <c r="AB668" s="11"/>
@@ -56010,8 +56009,8 @@
       <c r="C669" s="11"/>
       <c r="D669" s="11"/>
       <c r="E669" s="11"/>
-      <c r="F669" s="45"/>
-      <c r="G669" s="45"/>
+      <c r="F669" s="46"/>
+      <c r="G669" s="46"/>
       <c r="H669" s="21"/>
       <c r="I669" s="11"/>
       <c r="J669" s="21"/>
@@ -56025,11 +56024,11 @@
       <c r="R669" s="13"/>
       <c r="S669" s="11"/>
       <c r="T669" s="11"/>
-      <c r="U669" s="33"/>
+      <c r="U669" s="34"/>
       <c r="V669" s="11"/>
-      <c r="W669" s="43"/>
-      <c r="X669" s="34"/>
-      <c r="Y669" s="46"/>
+      <c r="W669" s="44"/>
+      <c r="X669" s="35"/>
+      <c r="Y669" s="47"/>
       <c r="Z669" s="11"/>
       <c r="AA669" s="11"/>
       <c r="AB669" s="11"/>
@@ -56040,8 +56039,8 @@
       <c r="C670" s="11"/>
       <c r="D670" s="11"/>
       <c r="E670" s="11"/>
-      <c r="F670" s="45"/>
-      <c r="G670" s="45"/>
+      <c r="F670" s="46"/>
+      <c r="G670" s="46"/>
       <c r="H670" s="21"/>
       <c r="I670" s="11"/>
       <c r="J670" s="21"/>
@@ -56055,11 +56054,11 @@
       <c r="R670" s="13"/>
       <c r="S670" s="11"/>
       <c r="T670" s="11"/>
-      <c r="U670" s="33"/>
+      <c r="U670" s="34"/>
       <c r="V670" s="11"/>
-      <c r="W670" s="43"/>
-      <c r="X670" s="34"/>
-      <c r="Y670" s="46"/>
+      <c r="W670" s="44"/>
+      <c r="X670" s="35"/>
+      <c r="Y670" s="47"/>
       <c r="Z670" s="11"/>
       <c r="AA670" s="11"/>
       <c r="AB670" s="11"/>
@@ -56070,8 +56069,8 @@
       <c r="C671" s="11"/>
       <c r="D671" s="11"/>
       <c r="E671" s="11"/>
-      <c r="F671" s="45"/>
-      <c r="G671" s="45"/>
+      <c r="F671" s="46"/>
+      <c r="G671" s="46"/>
       <c r="H671" s="21"/>
       <c r="I671" s="11"/>
       <c r="J671" s="21"/>
@@ -56085,11 +56084,11 @@
       <c r="R671" s="13"/>
       <c r="S671" s="11"/>
       <c r="T671" s="11"/>
-      <c r="U671" s="33"/>
+      <c r="U671" s="34"/>
       <c r="V671" s="11"/>
-      <c r="W671" s="43"/>
-      <c r="X671" s="34"/>
-      <c r="Y671" s="46"/>
+      <c r="W671" s="44"/>
+      <c r="X671" s="35"/>
+      <c r="Y671" s="47"/>
       <c r="Z671" s="11"/>
       <c r="AA671" s="11"/>
       <c r="AB671" s="11"/>
@@ -56098,10 +56097,10 @@
       <c r="A672" s="11"/>
       <c r="B672" s="13"/>
       <c r="C672" s="11"/>
-      <c r="D672" s="45"/>
+      <c r="D672" s="46"/>
       <c r="E672" s="11"/>
-      <c r="F672" s="45"/>
-      <c r="G672" s="45"/>
+      <c r="F672" s="46"/>
+      <c r="G672" s="46"/>
       <c r="H672" s="21"/>
       <c r="I672" s="11"/>
       <c r="J672" s="21"/>
@@ -56115,11 +56114,11 @@
       <c r="R672" s="13"/>
       <c r="S672" s="11"/>
       <c r="T672" s="11"/>
-      <c r="U672" s="33"/>
+      <c r="U672" s="34"/>
       <c r="V672" s="11"/>
-      <c r="W672" s="43"/>
-      <c r="X672" s="34"/>
-      <c r="Y672" s="46"/>
+      <c r="W672" s="44"/>
+      <c r="X672" s="35"/>
+      <c r="Y672" s="47"/>
       <c r="Z672" s="11"/>
       <c r="AA672" s="11"/>
       <c r="AB672" s="11"/>
@@ -56128,10 +56127,10 @@
       <c r="A673" s="11"/>
       <c r="B673" s="13"/>
       <c r="C673" s="11"/>
-      <c r="D673" s="45"/>
+      <c r="D673" s="46"/>
       <c r="E673" s="11"/>
-      <c r="F673" s="45"/>
-      <c r="G673" s="45"/>
+      <c r="F673" s="46"/>
+      <c r="G673" s="46"/>
       <c r="H673" s="21"/>
       <c r="I673" s="11"/>
       <c r="J673" s="21"/>
@@ -56145,11 +56144,11 @@
       <c r="R673" s="13"/>
       <c r="S673" s="11"/>
       <c r="T673" s="11"/>
-      <c r="U673" s="33"/>
+      <c r="U673" s="34"/>
       <c r="V673" s="11"/>
-      <c r="W673" s="43"/>
-      <c r="X673" s="34"/>
-      <c r="Y673" s="46"/>
+      <c r="W673" s="44"/>
+      <c r="X673" s="35"/>
+      <c r="Y673" s="47"/>
       <c r="Z673" s="11"/>
       <c r="AA673" s="11"/>
       <c r="AB673" s="11"/>
@@ -56158,10 +56157,10 @@
       <c r="A674" s="11"/>
       <c r="B674" s="13"/>
       <c r="C674" s="11"/>
-      <c r="D674" s="45"/>
+      <c r="D674" s="46"/>
       <c r="E674" s="11"/>
-      <c r="F674" s="45"/>
-      <c r="G674" s="45"/>
+      <c r="F674" s="46"/>
+      <c r="G674" s="46"/>
       <c r="H674" s="21"/>
       <c r="I674" s="11"/>
       <c r="J674" s="21"/>
@@ -56175,11 +56174,11 @@
       <c r="R674" s="13"/>
       <c r="S674" s="11"/>
       <c r="T674" s="11"/>
-      <c r="U674" s="33"/>
+      <c r="U674" s="34"/>
       <c r="V674" s="11"/>
-      <c r="W674" s="43"/>
-      <c r="X674" s="34"/>
-      <c r="Y674" s="46"/>
+      <c r="W674" s="44"/>
+      <c r="X674" s="35"/>
+      <c r="Y674" s="47"/>
       <c r="Z674" s="11"/>
       <c r="AA674" s="11"/>
       <c r="AB674" s="11"/>
@@ -56188,10 +56187,10 @@
       <c r="A675" s="11"/>
       <c r="B675" s="13"/>
       <c r="C675" s="11"/>
-      <c r="D675" s="45"/>
+      <c r="D675" s="46"/>
       <c r="E675" s="11"/>
-      <c r="F675" s="45"/>
-      <c r="G675" s="45"/>
+      <c r="F675" s="46"/>
+      <c r="G675" s="46"/>
       <c r="H675" s="21"/>
       <c r="I675" s="11"/>
       <c r="J675" s="21"/>
@@ -56205,11 +56204,11 @@
       <c r="R675" s="13"/>
       <c r="S675" s="11"/>
       <c r="T675" s="11"/>
-      <c r="U675" s="33"/>
+      <c r="U675" s="34"/>
       <c r="V675" s="11"/>
-      <c r="W675" s="43"/>
-      <c r="X675" s="34"/>
-      <c r="Y675" s="46"/>
+      <c r="W675" s="44"/>
+      <c r="X675" s="35"/>
+      <c r="Y675" s="47"/>
       <c r="Z675" s="11"/>
       <c r="AA675" s="11"/>
       <c r="AB675" s="11"/>
@@ -56218,10 +56217,10 @@
       <c r="A676" s="11"/>
       <c r="B676" s="13"/>
       <c r="C676" s="11"/>
-      <c r="D676" s="45"/>
+      <c r="D676" s="46"/>
       <c r="E676" s="11"/>
-      <c r="F676" s="45"/>
-      <c r="G676" s="45"/>
+      <c r="F676" s="46"/>
+      <c r="G676" s="46"/>
       <c r="H676" s="21"/>
       <c r="I676" s="11"/>
       <c r="J676" s="21"/>
@@ -56235,11 +56234,11 @@
       <c r="R676" s="13"/>
       <c r="S676" s="11"/>
       <c r="T676" s="11"/>
-      <c r="U676" s="33"/>
+      <c r="U676" s="34"/>
       <c r="V676" s="11"/>
-      <c r="W676" s="43"/>
-      <c r="X676" s="34"/>
-      <c r="Y676" s="46"/>
+      <c r="W676" s="44"/>
+      <c r="X676" s="35"/>
+      <c r="Y676" s="47"/>
       <c r="Z676" s="11"/>
       <c r="AA676" s="11"/>
       <c r="AB676" s="11"/>
@@ -56248,10 +56247,10 @@
       <c r="A677" s="11"/>
       <c r="B677" s="13"/>
       <c r="C677" s="11"/>
-      <c r="D677" s="45"/>
+      <c r="D677" s="46"/>
       <c r="E677" s="11"/>
-      <c r="F677" s="45"/>
-      <c r="G677" s="45"/>
+      <c r="F677" s="46"/>
+      <c r="G677" s="46"/>
       <c r="H677" s="21"/>
       <c r="I677" s="11"/>
       <c r="J677" s="21"/>
@@ -56265,11 +56264,11 @@
       <c r="R677" s="13"/>
       <c r="S677" s="11"/>
       <c r="T677" s="11"/>
-      <c r="U677" s="33"/>
+      <c r="U677" s="34"/>
       <c r="V677" s="11"/>
-      <c r="W677" s="43"/>
-      <c r="X677" s="34"/>
-      <c r="Y677" s="46"/>
+      <c r="W677" s="44"/>
+      <c r="X677" s="35"/>
+      <c r="Y677" s="47"/>
       <c r="Z677" s="11"/>
       <c r="AA677" s="11"/>
       <c r="AB677" s="11"/>
@@ -56278,10 +56277,10 @@
       <c r="A678" s="11"/>
       <c r="B678" s="13"/>
       <c r="C678" s="11"/>
-      <c r="D678" s="45"/>
+      <c r="D678" s="46"/>
       <c r="E678" s="11"/>
-      <c r="F678" s="45"/>
-      <c r="G678" s="45"/>
+      <c r="F678" s="46"/>
+      <c r="G678" s="46"/>
       <c r="H678" s="21"/>
       <c r="I678" s="11"/>
       <c r="J678" s="21"/>
@@ -56295,11 +56294,11 @@
       <c r="R678" s="13"/>
       <c r="S678" s="11"/>
       <c r="T678" s="11"/>
-      <c r="U678" s="33"/>
+      <c r="U678" s="34"/>
       <c r="V678" s="11"/>
-      <c r="W678" s="43"/>
-      <c r="X678" s="34"/>
-      <c r="Y678" s="46"/>
+      <c r="W678" s="44"/>
+      <c r="X678" s="35"/>
+      <c r="Y678" s="47"/>
       <c r="Z678" s="11"/>
       <c r="AA678" s="11"/>
       <c r="AB678" s="11"/>
@@ -56308,10 +56307,10 @@
       <c r="A679" s="11"/>
       <c r="B679" s="13"/>
       <c r="C679" s="11"/>
-      <c r="D679" s="45"/>
+      <c r="D679" s="46"/>
       <c r="E679" s="11"/>
-      <c r="F679" s="45"/>
-      <c r="G679" s="45"/>
+      <c r="F679" s="46"/>
+      <c r="G679" s="46"/>
       <c r="H679" s="21"/>
       <c r="I679" s="11"/>
       <c r="J679" s="21"/>
@@ -56325,11 +56324,11 @@
       <c r="R679" s="13"/>
       <c r="S679" s="11"/>
       <c r="T679" s="11"/>
-      <c r="U679" s="33"/>
+      <c r="U679" s="34"/>
       <c r="V679" s="11"/>
-      <c r="W679" s="43"/>
-      <c r="X679" s="34"/>
-      <c r="Y679" s="46"/>
+      <c r="W679" s="44"/>
+      <c r="X679" s="35"/>
+      <c r="Y679" s="47"/>
       <c r="Z679" s="11"/>
       <c r="AA679" s="11"/>
       <c r="AB679" s="11"/>
@@ -56338,10 +56337,10 @@
       <c r="A680" s="11"/>
       <c r="B680" s="13"/>
       <c r="C680" s="11"/>
-      <c r="D680" s="45"/>
+      <c r="D680" s="46"/>
       <c r="E680" s="11"/>
-      <c r="F680" s="45"/>
-      <c r="G680" s="45"/>
+      <c r="F680" s="46"/>
+      <c r="G680" s="46"/>
       <c r="H680" s="21"/>
       <c r="I680" s="11"/>
       <c r="J680" s="21"/>
@@ -56355,11 +56354,11 @@
       <c r="R680" s="13"/>
       <c r="S680" s="11"/>
       <c r="T680" s="11"/>
-      <c r="U680" s="33"/>
+      <c r="U680" s="34"/>
       <c r="V680" s="11"/>
-      <c r="W680" s="43"/>
-      <c r="X680" s="34"/>
-      <c r="Y680" s="46"/>
+      <c r="W680" s="44"/>
+      <c r="X680" s="35"/>
+      <c r="Y680" s="47"/>
       <c r="Z680" s="11"/>
       <c r="AA680" s="11"/>
       <c r="AB680" s="11"/>
@@ -56368,10 +56367,10 @@
       <c r="A681" s="11"/>
       <c r="B681" s="13"/>
       <c r="C681" s="11"/>
-      <c r="D681" s="45"/>
+      <c r="D681" s="46"/>
       <c r="E681" s="11"/>
-      <c r="F681" s="45"/>
-      <c r="G681" s="45"/>
+      <c r="F681" s="46"/>
+      <c r="G681" s="46"/>
       <c r="H681" s="21"/>
       <c r="I681" s="11"/>
       <c r="J681" s="21"/>
@@ -56385,11 +56384,11 @@
       <c r="R681" s="13"/>
       <c r="S681" s="11"/>
       <c r="T681" s="11"/>
-      <c r="U681" s="33"/>
+      <c r="U681" s="34"/>
       <c r="V681" s="11"/>
-      <c r="W681" s="43"/>
-      <c r="X681" s="34"/>
-      <c r="Y681" s="46"/>
+      <c r="W681" s="44"/>
+      <c r="X681" s="35"/>
+      <c r="Y681" s="47"/>
       <c r="Z681" s="11"/>
       <c r="AA681" s="11"/>
       <c r="AB681" s="11"/>
@@ -56398,10 +56397,10 @@
       <c r="A682" s="11"/>
       <c r="B682" s="13"/>
       <c r="C682" s="11"/>
-      <c r="D682" s="45"/>
+      <c r="D682" s="46"/>
       <c r="E682" s="11"/>
-      <c r="F682" s="45"/>
-      <c r="G682" s="45"/>
+      <c r="F682" s="46"/>
+      <c r="G682" s="46"/>
       <c r="H682" s="21"/>
       <c r="I682" s="11"/>
       <c r="J682" s="21"/>
@@ -56415,11 +56414,11 @@
       <c r="R682" s="13"/>
       <c r="S682" s="11"/>
       <c r="T682" s="11"/>
-      <c r="U682" s="33"/>
+      <c r="U682" s="34"/>
       <c r="V682" s="11"/>
-      <c r="W682" s="43"/>
-      <c r="X682" s="34"/>
-      <c r="Y682" s="46"/>
+      <c r="W682" s="44"/>
+      <c r="X682" s="35"/>
+      <c r="Y682" s="47"/>
       <c r="Z682" s="11"/>
       <c r="AA682" s="11"/>
       <c r="AB682" s="11"/>
@@ -56430,8 +56429,8 @@
       <c r="C683" s="11"/>
       <c r="D683" s="11"/>
       <c r="E683" s="11"/>
-      <c r="F683" s="45"/>
-      <c r="G683" s="45"/>
+      <c r="F683" s="46"/>
+      <c r="G683" s="46"/>
       <c r="H683" s="21"/>
       <c r="I683" s="11"/>
       <c r="J683" s="21"/>
@@ -56445,11 +56444,11 @@
       <c r="R683" s="13"/>
       <c r="S683" s="11"/>
       <c r="T683" s="11"/>
-      <c r="U683" s="33"/>
+      <c r="U683" s="34"/>
       <c r="V683" s="11"/>
-      <c r="W683" s="43"/>
-      <c r="X683" s="34"/>
-      <c r="Y683" s="46"/>
+      <c r="W683" s="44"/>
+      <c r="X683" s="35"/>
+      <c r="Y683" s="47"/>
       <c r="Z683" s="11"/>
       <c r="AA683" s="11"/>
       <c r="AB683" s="11"/>
@@ -56460,8 +56459,8 @@
       <c r="C684" s="11"/>
       <c r="D684" s="11"/>
       <c r="E684" s="11"/>
-      <c r="F684" s="45"/>
-      <c r="G684" s="45"/>
+      <c r="F684" s="46"/>
+      <c r="G684" s="46"/>
       <c r="H684" s="21"/>
       <c r="I684" s="11"/>
       <c r="J684" s="21"/>
@@ -56475,11 +56474,11 @@
       <c r="R684" s="13"/>
       <c r="S684" s="11"/>
       <c r="T684" s="11"/>
-      <c r="U684" s="33"/>
+      <c r="U684" s="34"/>
       <c r="V684" s="11"/>
-      <c r="W684" s="43"/>
-      <c r="X684" s="34"/>
-      <c r="Y684" s="46"/>
+      <c r="W684" s="44"/>
+      <c r="X684" s="35"/>
+      <c r="Y684" s="47"/>
       <c r="Z684" s="11"/>
       <c r="AA684" s="11"/>
       <c r="AB684" s="11"/>
@@ -56490,8 +56489,8 @@
       <c r="C685" s="11"/>
       <c r="D685" s="11"/>
       <c r="E685" s="11"/>
-      <c r="F685" s="45"/>
-      <c r="G685" s="45"/>
+      <c r="F685" s="46"/>
+      <c r="G685" s="46"/>
       <c r="H685" s="21"/>
       <c r="I685" s="11"/>
       <c r="J685" s="21"/>
@@ -56505,11 +56504,11 @@
       <c r="R685" s="13"/>
       <c r="S685" s="11"/>
       <c r="T685" s="11"/>
-      <c r="U685" s="33"/>
+      <c r="U685" s="34"/>
       <c r="V685" s="11"/>
-      <c r="W685" s="43"/>
-      <c r="X685" s="34"/>
-      <c r="Y685" s="46"/>
+      <c r="W685" s="44"/>
+      <c r="X685" s="35"/>
+      <c r="Y685" s="47"/>
       <c r="Z685" s="11"/>
       <c r="AA685" s="11"/>
       <c r="AB685" s="11"/>
@@ -56518,10 +56517,10 @@
       <c r="A686" s="11"/>
       <c r="B686" s="13"/>
       <c r="C686" s="11"/>
-      <c r="D686" s="45"/>
+      <c r="D686" s="46"/>
       <c r="E686" s="11"/>
-      <c r="F686" s="45"/>
-      <c r="G686" s="45"/>
+      <c r="F686" s="46"/>
+      <c r="G686" s="46"/>
       <c r="H686" s="21"/>
       <c r="I686" s="11"/>
       <c r="J686" s="21"/>
@@ -56535,11 +56534,11 @@
       <c r="R686" s="13"/>
       <c r="S686" s="11"/>
       <c r="T686" s="11"/>
-      <c r="U686" s="33"/>
+      <c r="U686" s="34"/>
       <c r="V686" s="11"/>
-      <c r="W686" s="43"/>
-      <c r="X686" s="34"/>
-      <c r="Y686" s="46"/>
+      <c r="W686" s="44"/>
+      <c r="X686" s="35"/>
+      <c r="Y686" s="47"/>
       <c r="Z686" s="11"/>
       <c r="AA686" s="11"/>
       <c r="AB686" s="11"/>
@@ -56548,10 +56547,10 @@
       <c r="A687" s="11"/>
       <c r="B687" s="13"/>
       <c r="C687" s="11"/>
-      <c r="D687" s="45"/>
+      <c r="D687" s="46"/>
       <c r="E687" s="11"/>
-      <c r="F687" s="45"/>
-      <c r="G687" s="45"/>
+      <c r="F687" s="46"/>
+      <c r="G687" s="46"/>
       <c r="H687" s="21"/>
       <c r="I687" s="11"/>
       <c r="J687" s="21"/>
@@ -56565,11 +56564,11 @@
       <c r="R687" s="13"/>
       <c r="S687" s="11"/>
       <c r="T687" s="11"/>
-      <c r="U687" s="33"/>
+      <c r="U687" s="34"/>
       <c r="V687" s="11"/>
-      <c r="W687" s="43"/>
-      <c r="X687" s="34"/>
-      <c r="Y687" s="46"/>
+      <c r="W687" s="44"/>
+      <c r="X687" s="35"/>
+      <c r="Y687" s="47"/>
       <c r="Z687" s="11"/>
       <c r="AA687" s="11"/>
       <c r="AB687" s="11"/>
@@ -56578,10 +56577,10 @@
       <c r="A688" s="11"/>
       <c r="B688" s="13"/>
       <c r="C688" s="11"/>
-      <c r="D688" s="45"/>
+      <c r="D688" s="46"/>
       <c r="E688" s="11"/>
-      <c r="F688" s="45"/>
-      <c r="G688" s="45"/>
+      <c r="F688" s="46"/>
+      <c r="G688" s="46"/>
       <c r="H688" s="21"/>
       <c r="I688" s="11"/>
       <c r="J688" s="21"/>
@@ -56595,11 +56594,11 @@
       <c r="R688" s="13"/>
       <c r="S688" s="11"/>
       <c r="T688" s="11"/>
-      <c r="U688" s="33"/>
+      <c r="U688" s="34"/>
       <c r="V688" s="11"/>
-      <c r="W688" s="43"/>
-      <c r="X688" s="34"/>
-      <c r="Y688" s="46"/>
+      <c r="W688" s="44"/>
+      <c r="X688" s="35"/>
+      <c r="Y688" s="47"/>
       <c r="Z688" s="11"/>
       <c r="AA688" s="11"/>
       <c r="AB688" s="11"/>
@@ -56608,10 +56607,10 @@
       <c r="A689" s="11"/>
       <c r="B689" s="13"/>
       <c r="C689" s="11"/>
-      <c r="D689" s="45"/>
+      <c r="D689" s="46"/>
       <c r="E689" s="11"/>
-      <c r="F689" s="45"/>
-      <c r="G689" s="45"/>
+      <c r="F689" s="46"/>
+      <c r="G689" s="46"/>
       <c r="H689" s="21"/>
       <c r="I689" s="11"/>
       <c r="J689" s="21"/>
@@ -56625,11 +56624,11 @@
       <c r="R689" s="13"/>
       <c r="S689" s="11"/>
       <c r="T689" s="11"/>
-      <c r="U689" s="33"/>
+      <c r="U689" s="34"/>
       <c r="V689" s="11"/>
-      <c r="W689" s="43"/>
-      <c r="X689" s="34"/>
-      <c r="Y689" s="46"/>
+      <c r="W689" s="44"/>
+      <c r="X689" s="35"/>
+      <c r="Y689" s="47"/>
       <c r="Z689" s="11"/>
       <c r="AA689" s="11"/>
       <c r="AB689" s="11"/>
@@ -56638,10 +56637,10 @@
       <c r="A690" s="11"/>
       <c r="B690" s="13"/>
       <c r="C690" s="11"/>
-      <c r="D690" s="45"/>
+      <c r="D690" s="46"/>
       <c r="E690" s="11"/>
-      <c r="F690" s="45"/>
-      <c r="G690" s="45"/>
+      <c r="F690" s="46"/>
+      <c r="G690" s="46"/>
       <c r="H690" s="21"/>
       <c r="I690" s="11"/>
       <c r="J690" s="21"/>
@@ -56655,11 +56654,11 @@
       <c r="R690" s="13"/>
       <c r="S690" s="11"/>
       <c r="T690" s="11"/>
-      <c r="U690" s="33"/>
+      <c r="U690" s="34"/>
       <c r="V690" s="11"/>
-      <c r="W690" s="43"/>
-      <c r="X690" s="34"/>
-      <c r="Y690" s="46"/>
+      <c r="W690" s="44"/>
+      <c r="X690" s="35"/>
+      <c r="Y690" s="47"/>
       <c r="Z690" s="11"/>
       <c r="AA690" s="11"/>
       <c r="AB690" s="11"/>
@@ -56668,10 +56667,10 @@
       <c r="A691" s="11"/>
       <c r="B691" s="13"/>
       <c r="C691" s="11"/>
-      <c r="D691" s="45"/>
+      <c r="D691" s="46"/>
       <c r="E691" s="11"/>
-      <c r="F691" s="45"/>
-      <c r="G691" s="45"/>
+      <c r="F691" s="46"/>
+      <c r="G691" s="46"/>
       <c r="H691" s="21"/>
       <c r="I691" s="11"/>
       <c r="J691" s="21"/>
@@ -56685,11 +56684,11 @@
       <c r="R691" s="13"/>
       <c r="S691" s="11"/>
       <c r="T691" s="11"/>
-      <c r="U691" s="33"/>
+      <c r="U691" s="34"/>
       <c r="V691" s="11"/>
-      <c r="W691" s="43"/>
-      <c r="X691" s="34"/>
-      <c r="Y691" s="46"/>
+      <c r="W691" s="44"/>
+      <c r="X691" s="35"/>
+      <c r="Y691" s="47"/>
       <c r="Z691" s="11"/>
       <c r="AA691" s="11"/>
       <c r="AB691" s="11"/>
@@ -56698,10 +56697,10 @@
       <c r="A692" s="11"/>
       <c r="B692" s="13"/>
       <c r="C692" s="11"/>
-      <c r="D692" s="45"/>
+      <c r="D692" s="46"/>
       <c r="E692" s="11"/>
-      <c r="F692" s="45"/>
-      <c r="G692" s="45"/>
+      <c r="F692" s="46"/>
+      <c r="G692" s="46"/>
       <c r="H692" s="21"/>
       <c r="I692" s="11"/>
       <c r="J692" s="21"/>
@@ -56715,11 +56714,11 @@
       <c r="R692" s="13"/>
       <c r="S692" s="11"/>
       <c r="T692" s="11"/>
-      <c r="U692" s="33"/>
+      <c r="U692" s="34"/>
       <c r="V692" s="11"/>
-      <c r="W692" s="43"/>
-      <c r="X692" s="34"/>
-      <c r="Y692" s="46"/>
+      <c r="W692" s="44"/>
+      <c r="X692" s="35"/>
+      <c r="Y692" s="47"/>
       <c r="Z692" s="11"/>
       <c r="AA692" s="11"/>
       <c r="AB692" s="11"/>
@@ -56728,10 +56727,10 @@
       <c r="A693" s="11"/>
       <c r="B693" s="13"/>
       <c r="C693" s="11"/>
-      <c r="D693" s="45"/>
+      <c r="D693" s="46"/>
       <c r="E693" s="11"/>
-      <c r="F693" s="45"/>
-      <c r="G693" s="45"/>
+      <c r="F693" s="46"/>
+      <c r="G693" s="46"/>
       <c r="H693" s="21"/>
       <c r="I693" s="11"/>
       <c r="J693" s="21"/>
@@ -56745,11 +56744,11 @@
       <c r="R693" s="13"/>
       <c r="S693" s="11"/>
       <c r="T693" s="11"/>
-      <c r="U693" s="33"/>
+      <c r="U693" s="34"/>
       <c r="V693" s="11"/>
-      <c r="W693" s="43"/>
-      <c r="X693" s="34"/>
-      <c r="Y693" s="46"/>
+      <c r="W693" s="44"/>
+      <c r="X693" s="35"/>
+      <c r="Y693" s="47"/>
       <c r="Z693" s="11"/>
       <c r="AA693" s="11"/>
       <c r="AB693" s="11"/>
@@ -56760,8 +56759,8 @@
       <c r="C694" s="11"/>
       <c r="D694" s="11"/>
       <c r="E694" s="11"/>
-      <c r="F694" s="45"/>
-      <c r="G694" s="45"/>
+      <c r="F694" s="46"/>
+      <c r="G694" s="46"/>
       <c r="H694" s="21"/>
       <c r="I694" s="11"/>
       <c r="J694" s="21"/>
@@ -56775,11 +56774,11 @@
       <c r="R694" s="13"/>
       <c r="S694" s="11"/>
       <c r="T694" s="11"/>
-      <c r="U694" s="33"/>
+      <c r="U694" s="34"/>
       <c r="V694" s="11"/>
-      <c r="W694" s="43"/>
-      <c r="X694" s="34"/>
-      <c r="Y694" s="46"/>
+      <c r="W694" s="44"/>
+      <c r="X694" s="35"/>
+      <c r="Y694" s="47"/>
       <c r="Z694" s="11"/>
       <c r="AA694" s="11"/>
       <c r="AB694" s="11"/>
@@ -56788,10 +56787,10 @@
       <c r="A695" s="11"/>
       <c r="B695" s="13"/>
       <c r="C695" s="11"/>
-      <c r="D695" s="45"/>
+      <c r="D695" s="46"/>
       <c r="E695" s="11"/>
-      <c r="F695" s="45"/>
-      <c r="G695" s="45"/>
+      <c r="F695" s="46"/>
+      <c r="G695" s="46"/>
       <c r="H695" s="21"/>
       <c r="I695" s="11"/>
       <c r="J695" s="21"/>
@@ -56805,11 +56804,11 @@
       <c r="R695" s="13"/>
       <c r="S695" s="11"/>
       <c r="T695" s="11"/>
-      <c r="U695" s="33"/>
+      <c r="U695" s="34"/>
       <c r="V695" s="11"/>
-      <c r="W695" s="43"/>
-      <c r="X695" s="34"/>
-      <c r="Y695" s="46"/>
+      <c r="W695" s="44"/>
+      <c r="X695" s="35"/>
+      <c r="Y695" s="47"/>
       <c r="Z695" s="11"/>
       <c r="AA695" s="11"/>
       <c r="AB695" s="11"/>
@@ -56818,10 +56817,10 @@
       <c r="A696" s="11"/>
       <c r="B696" s="13"/>
       <c r="C696" s="11"/>
-      <c r="D696" s="45"/>
+      <c r="D696" s="46"/>
       <c r="E696" s="11"/>
-      <c r="F696" s="45"/>
-      <c r="G696" s="45"/>
+      <c r="F696" s="46"/>
+      <c r="G696" s="46"/>
       <c r="H696" s="21"/>
       <c r="I696" s="11"/>
       <c r="J696" s="21"/>
@@ -56835,11 +56834,11 @@
       <c r="R696" s="13"/>
       <c r="S696" s="11"/>
       <c r="T696" s="11"/>
-      <c r="U696" s="33"/>
+      <c r="U696" s="34"/>
       <c r="V696" s="11"/>
-      <c r="W696" s="43"/>
-      <c r="X696" s="34"/>
-      <c r="Y696" s="46"/>
+      <c r="W696" s="44"/>
+      <c r="X696" s="35"/>
+      <c r="Y696" s="47"/>
       <c r="Z696" s="11"/>
       <c r="AA696" s="11"/>
       <c r="AB696" s="11"/>
@@ -56848,10 +56847,10 @@
       <c r="A697" s="11"/>
       <c r="B697" s="13"/>
       <c r="C697" s="11"/>
-      <c r="D697" s="45"/>
+      <c r="D697" s="46"/>
       <c r="E697" s="11"/>
-      <c r="F697" s="45"/>
-      <c r="G697" s="45"/>
+      <c r="F697" s="46"/>
+      <c r="G697" s="46"/>
       <c r="H697" s="21"/>
       <c r="I697" s="11"/>
       <c r="J697" s="21"/>
@@ -56865,11 +56864,11 @@
       <c r="R697" s="13"/>
       <c r="S697" s="11"/>
       <c r="T697" s="11"/>
-      <c r="U697" s="33"/>
+      <c r="U697" s="34"/>
       <c r="V697" s="11"/>
-      <c r="W697" s="43"/>
-      <c r="X697" s="34"/>
-      <c r="Y697" s="46"/>
+      <c r="W697" s="44"/>
+      <c r="X697" s="35"/>
+      <c r="Y697" s="47"/>
       <c r="Z697" s="11"/>
       <c r="AA697" s="11"/>
       <c r="AB697" s="11"/>
@@ -56878,10 +56877,10 @@
       <c r="A698" s="11"/>
       <c r="B698" s="13"/>
       <c r="C698" s="11"/>
-      <c r="D698" s="45"/>
+      <c r="D698" s="46"/>
       <c r="E698" s="11"/>
-      <c r="F698" s="45"/>
-      <c r="G698" s="45"/>
+      <c r="F698" s="46"/>
+      <c r="G698" s="46"/>
       <c r="H698" s="21"/>
       <c r="I698" s="11"/>
       <c r="J698" s="21"/>
@@ -56895,11 +56894,11 @@
       <c r="R698" s="13"/>
       <c r="S698" s="11"/>
       <c r="T698" s="11"/>
-      <c r="U698" s="33"/>
+      <c r="U698" s="34"/>
       <c r="V698" s="11"/>
-      <c r="W698" s="43"/>
-      <c r="X698" s="34"/>
-      <c r="Y698" s="46"/>
+      <c r="W698" s="44"/>
+      <c r="X698" s="35"/>
+      <c r="Y698" s="47"/>
       <c r="Z698" s="11"/>
       <c r="AA698" s="11"/>
       <c r="AB698" s="11"/>
@@ -56908,10 +56907,10 @@
       <c r="A699" s="11"/>
       <c r="B699" s="13"/>
       <c r="C699" s="11"/>
-      <c r="D699" s="45"/>
+      <c r="D699" s="46"/>
       <c r="E699" s="11"/>
-      <c r="F699" s="45"/>
-      <c r="G699" s="45"/>
+      <c r="F699" s="46"/>
+      <c r="G699" s="46"/>
       <c r="H699" s="21"/>
       <c r="I699" s="11"/>
       <c r="J699" s="21"/>
@@ -56925,11 +56924,11 @@
       <c r="R699" s="13"/>
       <c r="S699" s="11"/>
       <c r="T699" s="11"/>
-      <c r="U699" s="33"/>
+      <c r="U699" s="34"/>
       <c r="V699" s="11"/>
-      <c r="W699" s="43"/>
-      <c r="X699" s="34"/>
-      <c r="Y699" s="46"/>
+      <c r="W699" s="44"/>
+      <c r="X699" s="35"/>
+      <c r="Y699" s="47"/>
       <c r="Z699" s="11"/>
       <c r="AA699" s="11"/>
       <c r="AB699" s="11"/>
@@ -56938,10 +56937,10 @@
       <c r="A700" s="11"/>
       <c r="B700" s="13"/>
       <c r="C700" s="11"/>
-      <c r="D700" s="45"/>
+      <c r="D700" s="46"/>
       <c r="E700" s="11"/>
-      <c r="F700" s="45"/>
-      <c r="G700" s="45"/>
+      <c r="F700" s="46"/>
+      <c r="G700" s="46"/>
       <c r="H700" s="21"/>
       <c r="I700" s="11"/>
       <c r="J700" s="21"/>
@@ -56955,11 +56954,11 @@
       <c r="R700" s="13"/>
       <c r="S700" s="11"/>
       <c r="T700" s="11"/>
-      <c r="U700" s="33"/>
+      <c r="U700" s="34"/>
       <c r="V700" s="11"/>
-      <c r="W700" s="43"/>
-      <c r="X700" s="34"/>
-      <c r="Y700" s="46"/>
+      <c r="W700" s="44"/>
+      <c r="X700" s="35"/>
+      <c r="Y700" s="47"/>
       <c r="Z700" s="11"/>
       <c r="AA700" s="11"/>
       <c r="AB700" s="11"/>
@@ -56968,10 +56967,10 @@
       <c r="A701" s="11"/>
       <c r="B701" s="13"/>
       <c r="C701" s="11"/>
-      <c r="D701" s="45"/>
+      <c r="D701" s="46"/>
       <c r="E701" s="11"/>
-      <c r="F701" s="45"/>
-      <c r="G701" s="45"/>
+      <c r="F701" s="46"/>
+      <c r="G701" s="46"/>
       <c r="H701" s="21"/>
       <c r="I701" s="11"/>
       <c r="J701" s="21"/>
@@ -56985,11 +56984,11 @@
       <c r="R701" s="13"/>
       <c r="S701" s="11"/>
       <c r="T701" s="11"/>
-      <c r="U701" s="33"/>
+      <c r="U701" s="34"/>
       <c r="V701" s="11"/>
-      <c r="W701" s="43"/>
-      <c r="X701" s="34"/>
-      <c r="Y701" s="46"/>
+      <c r="W701" s="44"/>
+      <c r="X701" s="35"/>
+      <c r="Y701" s="47"/>
       <c r="Z701" s="11"/>
       <c r="AA701" s="11"/>
       <c r="AB701" s="11"/>
@@ -56998,10 +56997,10 @@
       <c r="A702" s="11"/>
       <c r="B702" s="13"/>
       <c r="C702" s="11"/>
-      <c r="D702" s="45"/>
+      <c r="D702" s="46"/>
       <c r="E702" s="11"/>
-      <c r="F702" s="45"/>
-      <c r="G702" s="45"/>
+      <c r="F702" s="46"/>
+      <c r="G702" s="46"/>
       <c r="H702" s="21"/>
       <c r="I702" s="11"/>
       <c r="J702" s="21"/>
@@ -57015,11 +57014,11 @@
       <c r="R702" s="13"/>
       <c r="S702" s="11"/>
       <c r="T702" s="11"/>
-      <c r="U702" s="33"/>
+      <c r="U702" s="34"/>
       <c r="V702" s="11"/>
-      <c r="W702" s="43"/>
-      <c r="X702" s="34"/>
-      <c r="Y702" s="46"/>
+      <c r="W702" s="44"/>
+      <c r="X702" s="35"/>
+      <c r="Y702" s="47"/>
       <c r="Z702" s="11"/>
       <c r="AA702" s="11"/>
       <c r="AB702" s="11"/>
@@ -57028,10 +57027,10 @@
       <c r="A703" s="11"/>
       <c r="B703" s="13"/>
       <c r="C703" s="11"/>
-      <c r="D703" s="45"/>
+      <c r="D703" s="46"/>
       <c r="E703" s="11"/>
-      <c r="F703" s="45"/>
-      <c r="G703" s="45"/>
+      <c r="F703" s="46"/>
+      <c r="G703" s="46"/>
       <c r="H703" s="21"/>
       <c r="I703" s="11"/>
       <c r="J703" s="21"/>
@@ -57043,13 +57042,13 @@
       <c r="P703" s="20"/>
       <c r="Q703" s="20"/>
       <c r="R703" s="13"/>
-      <c r="S703" s="33"/>
+      <c r="S703" s="34"/>
       <c r="T703" s="11"/>
-      <c r="U703" s="33"/>
+      <c r="U703" s="34"/>
       <c r="V703" s="11"/>
-      <c r="W703" s="43"/>
-      <c r="X703" s="34"/>
-      <c r="Y703" s="46"/>
+      <c r="W703" s="44"/>
+      <c r="X703" s="35"/>
+      <c r="Y703" s="47"/>
       <c r="Z703" s="11"/>
       <c r="AA703" s="11"/>
       <c r="AB703" s="11"/>
@@ -57058,10 +57057,10 @@
       <c r="A704" s="11"/>
       <c r="B704" s="13"/>
       <c r="C704" s="11"/>
-      <c r="D704" s="45"/>
+      <c r="D704" s="46"/>
       <c r="E704" s="11"/>
-      <c r="F704" s="45"/>
-      <c r="G704" s="45"/>
+      <c r="F704" s="46"/>
+      <c r="G704" s="46"/>
       <c r="H704" s="21"/>
       <c r="I704" s="11"/>
       <c r="J704" s="21"/>
@@ -57073,13 +57072,13 @@
       <c r="P704" s="20"/>
       <c r="Q704" s="20"/>
       <c r="R704" s="13"/>
-      <c r="S704" s="33"/>
+      <c r="S704" s="34"/>
       <c r="T704" s="11"/>
-      <c r="U704" s="33"/>
+      <c r="U704" s="34"/>
       <c r="V704" s="11"/>
-      <c r="W704" s="43"/>
-      <c r="X704" s="34"/>
-      <c r="Y704" s="46"/>
+      <c r="W704" s="44"/>
+      <c r="X704" s="35"/>
+      <c r="Y704" s="47"/>
       <c r="Z704" s="11"/>
       <c r="AA704" s="11"/>
       <c r="AB704" s="11"/>
@@ -57088,10 +57087,10 @@
       <c r="A705" s="11"/>
       <c r="B705" s="13"/>
       <c r="C705" s="11"/>
-      <c r="D705" s="45"/>
+      <c r="D705" s="46"/>
       <c r="E705" s="11"/>
-      <c r="F705" s="45"/>
-      <c r="G705" s="45"/>
+      <c r="F705" s="46"/>
+      <c r="G705" s="46"/>
       <c r="H705" s="21"/>
       <c r="I705" s="11"/>
       <c r="J705" s="21"/>
@@ -57103,13 +57102,13 @@
       <c r="P705" s="20"/>
       <c r="Q705" s="20"/>
       <c r="R705" s="13"/>
-      <c r="S705" s="33"/>
+      <c r="S705" s="34"/>
       <c r="T705" s="11"/>
-      <c r="U705" s="33"/>
+      <c r="U705" s="34"/>
       <c r="V705" s="11"/>
-      <c r="W705" s="43"/>
-      <c r="X705" s="34"/>
-      <c r="Y705" s="46"/>
+      <c r="W705" s="44"/>
+      <c r="X705" s="35"/>
+      <c r="Y705" s="47"/>
       <c r="Z705" s="11"/>
       <c r="AA705" s="11"/>
       <c r="AB705" s="11"/>
@@ -57120,8 +57119,8 @@
       <c r="C706" s="11"/>
       <c r="D706" s="11"/>
       <c r="E706" s="11"/>
-      <c r="F706" s="45"/>
-      <c r="G706" s="45"/>
+      <c r="F706" s="46"/>
+      <c r="G706" s="46"/>
       <c r="H706" s="21"/>
       <c r="I706" s="11"/>
       <c r="J706" s="21"/>
@@ -57133,13 +57132,13 @@
       <c r="P706" s="20"/>
       <c r="Q706" s="20"/>
       <c r="R706" s="13"/>
-      <c r="S706" s="33"/>
+      <c r="S706" s="34"/>
       <c r="T706" s="11"/>
-      <c r="U706" s="33"/>
+      <c r="U706" s="34"/>
       <c r="V706" s="11"/>
-      <c r="W706" s="43"/>
-      <c r="X706" s="34"/>
-      <c r="Y706" s="46"/>
+      <c r="W706" s="44"/>
+      <c r="X706" s="35"/>
+      <c r="Y706" s="47"/>
       <c r="Z706" s="11"/>
       <c r="AA706" s="11"/>
       <c r="AB706" s="11"/>
@@ -57150,8 +57149,8 @@
       <c r="C707" s="11"/>
       <c r="D707" s="11"/>
       <c r="E707" s="11"/>
-      <c r="F707" s="45"/>
-      <c r="G707" s="45"/>
+      <c r="F707" s="46"/>
+      <c r="G707" s="46"/>
       <c r="H707" s="21"/>
       <c r="I707" s="11"/>
       <c r="J707" s="21"/>
@@ -57163,13 +57162,13 @@
       <c r="P707" s="20"/>
       <c r="Q707" s="20"/>
       <c r="R707" s="13"/>
-      <c r="S707" s="33"/>
+      <c r="S707" s="34"/>
       <c r="T707" s="11"/>
-      <c r="U707" s="33"/>
+      <c r="U707" s="34"/>
       <c r="V707" s="11"/>
-      <c r="W707" s="43"/>
-      <c r="X707" s="34"/>
-      <c r="Y707" s="46"/>
+      <c r="W707" s="44"/>
+      <c r="X707" s="35"/>
+      <c r="Y707" s="47"/>
       <c r="Z707" s="11"/>
       <c r="AA707" s="11"/>
       <c r="AB707" s="11"/>
@@ -57180,8 +57179,8 @@
       <c r="C708" s="11"/>
       <c r="D708" s="11"/>
       <c r="E708" s="11"/>
-      <c r="F708" s="45"/>
-      <c r="G708" s="45"/>
+      <c r="F708" s="46"/>
+      <c r="G708" s="46"/>
       <c r="H708" s="21"/>
       <c r="I708" s="11"/>
       <c r="J708" s="21"/>
@@ -57193,13 +57192,13 @@
       <c r="P708" s="20"/>
       <c r="Q708" s="20"/>
       <c r="R708" s="13"/>
-      <c r="S708" s="33"/>
+      <c r="S708" s="34"/>
       <c r="T708" s="11"/>
-      <c r="U708" s="33"/>
+      <c r="U708" s="34"/>
       <c r="V708" s="11"/>
-      <c r="W708" s="43"/>
-      <c r="X708" s="34"/>
-      <c r="Y708" s="46"/>
+      <c r="W708" s="44"/>
+      <c r="X708" s="35"/>
+      <c r="Y708" s="47"/>
       <c r="Z708" s="11"/>
       <c r="AA708" s="11"/>
       <c r="AB708" s="11"/>
@@ -57208,10 +57207,10 @@
       <c r="A709" s="11"/>
       <c r="B709" s="13"/>
       <c r="C709" s="11"/>
-      <c r="D709" s="45"/>
+      <c r="D709" s="46"/>
       <c r="E709" s="11"/>
-      <c r="F709" s="45"/>
-      <c r="G709" s="45"/>
+      <c r="F709" s="46"/>
+      <c r="G709" s="46"/>
       <c r="H709" s="21"/>
       <c r="I709" s="11"/>
       <c r="J709" s="21"/>
@@ -57223,13 +57222,13 @@
       <c r="P709" s="20"/>
       <c r="Q709" s="20"/>
       <c r="R709" s="13"/>
-      <c r="S709" s="33"/>
+      <c r="S709" s="34"/>
       <c r="T709" s="11"/>
-      <c r="U709" s="33"/>
+      <c r="U709" s="34"/>
       <c r="V709" s="11"/>
-      <c r="W709" s="43"/>
-      <c r="X709" s="34"/>
-      <c r="Y709" s="46"/>
+      <c r="W709" s="44"/>
+      <c r="X709" s="35"/>
+      <c r="Y709" s="47"/>
       <c r="Z709" s="11"/>
       <c r="AA709" s="11"/>
       <c r="AB709" s="11"/>
@@ -57238,10 +57237,10 @@
       <c r="A710" s="11"/>
       <c r="B710" s="13"/>
       <c r="C710" s="11"/>
-      <c r="D710" s="45"/>
+      <c r="D710" s="46"/>
       <c r="E710" s="11"/>
-      <c r="F710" s="45"/>
-      <c r="G710" s="45"/>
+      <c r="F710" s="46"/>
+      <c r="G710" s="46"/>
       <c r="H710" s="21"/>
       <c r="I710" s="11"/>
       <c r="J710" s="21"/>
@@ -57253,13 +57252,13 @@
       <c r="P710" s="20"/>
       <c r="Q710" s="20"/>
       <c r="R710" s="13"/>
-      <c r="S710" s="33"/>
+      <c r="S710" s="34"/>
       <c r="T710" s="11"/>
-      <c r="U710" s="33"/>
+      <c r="U710" s="34"/>
       <c r="V710" s="11"/>
-      <c r="W710" s="43"/>
-      <c r="X710" s="34"/>
-      <c r="Y710" s="46"/>
+      <c r="W710" s="44"/>
+      <c r="X710" s="35"/>
+      <c r="Y710" s="47"/>
       <c r="Z710" s="11"/>
       <c r="AA710" s="11"/>
       <c r="AB710" s="11"/>
@@ -57268,10 +57267,10 @@
       <c r="A711" s="11"/>
       <c r="B711" s="13"/>
       <c r="C711" s="11"/>
-      <c r="D711" s="45"/>
+      <c r="D711" s="46"/>
       <c r="E711" s="11"/>
-      <c r="F711" s="45"/>
-      <c r="G711" s="45"/>
+      <c r="F711" s="46"/>
+      <c r="G711" s="46"/>
       <c r="H711" s="21"/>
       <c r="I711" s="11"/>
       <c r="J711" s="21"/>
@@ -57283,13 +57282,13 @@
       <c r="P711" s="20"/>
       <c r="Q711" s="20"/>
       <c r="R711" s="13"/>
-      <c r="S711" s="33"/>
+      <c r="S711" s="34"/>
       <c r="T711" s="11"/>
-      <c r="U711" s="33"/>
+      <c r="U711" s="34"/>
       <c r="V711" s="11"/>
-      <c r="W711" s="43"/>
-      <c r="X711" s="34"/>
-      <c r="Y711" s="46"/>
+      <c r="W711" s="44"/>
+      <c r="X711" s="35"/>
+      <c r="Y711" s="47"/>
       <c r="Z711" s="11"/>
       <c r="AA711" s="11"/>
       <c r="AB711" s="11"/>
@@ -57298,10 +57297,10 @@
       <c r="A712" s="11"/>
       <c r="B712" s="13"/>
       <c r="C712" s="11"/>
-      <c r="D712" s="45"/>
+      <c r="D712" s="46"/>
       <c r="E712" s="11"/>
-      <c r="F712" s="45"/>
-      <c r="G712" s="45"/>
+      <c r="F712" s="46"/>
+      <c r="G712" s="46"/>
       <c r="H712" s="21"/>
       <c r="I712" s="11"/>
       <c r="J712" s="21"/>
@@ -57313,13 +57312,13 @@
       <c r="P712" s="20"/>
       <c r="Q712" s="20"/>
       <c r="R712" s="13"/>
-      <c r="S712" s="33"/>
+      <c r="S712" s="34"/>
       <c r="T712" s="11"/>
-      <c r="U712" s="33"/>
+      <c r="U712" s="34"/>
       <c r="V712" s="11"/>
-      <c r="W712" s="43"/>
-      <c r="X712" s="34"/>
-      <c r="Y712" s="46"/>
+      <c r="W712" s="44"/>
+      <c r="X712" s="35"/>
+      <c r="Y712" s="47"/>
       <c r="Z712" s="11"/>
       <c r="AA712" s="11"/>
       <c r="AB712" s="11"/>
@@ -57328,10 +57327,10 @@
       <c r="A713" s="11"/>
       <c r="B713" s="13"/>
       <c r="C713" s="11"/>
-      <c r="D713" s="45"/>
+      <c r="D713" s="46"/>
       <c r="E713" s="11"/>
-      <c r="F713" s="45"/>
-      <c r="G713" s="45"/>
+      <c r="F713" s="46"/>
+      <c r="G713" s="46"/>
       <c r="H713" s="21"/>
       <c r="I713" s="11"/>
       <c r="J713" s="21"/>
@@ -57343,13 +57342,13 @@
       <c r="P713" s="20"/>
       <c r="Q713" s="20"/>
       <c r="R713" s="13"/>
-      <c r="S713" s="33"/>
+      <c r="S713" s="34"/>
       <c r="T713" s="11"/>
-      <c r="U713" s="33"/>
+      <c r="U713" s="34"/>
       <c r="V713" s="11"/>
-      <c r="W713" s="43"/>
-      <c r="X713" s="34"/>
-      <c r="Y713" s="46"/>
+      <c r="W713" s="44"/>
+      <c r="X713" s="35"/>
+      <c r="Y713" s="47"/>
       <c r="Z713" s="11"/>
       <c r="AA713" s="11"/>
       <c r="AB713" s="11"/>
@@ -57358,10 +57357,10 @@
       <c r="A714" s="11"/>
       <c r="B714" s="13"/>
       <c r="C714" s="11"/>
-      <c r="D714" s="45"/>
+      <c r="D714" s="46"/>
       <c r="E714" s="11"/>
-      <c r="F714" s="45"/>
-      <c r="G714" s="45"/>
+      <c r="F714" s="46"/>
+      <c r="G714" s="46"/>
       <c r="H714" s="21"/>
       <c r="I714" s="11"/>
       <c r="J714" s="21"/>
@@ -57373,13 +57372,13 @@
       <c r="P714" s="20"/>
       <c r="Q714" s="20"/>
       <c r="R714" s="13"/>
-      <c r="S714" s="33"/>
+      <c r="S714" s="34"/>
       <c r="T714" s="11"/>
-      <c r="U714" s="33"/>
+      <c r="U714" s="34"/>
       <c r="V714" s="11"/>
-      <c r="W714" s="43"/>
-      <c r="X714" s="34"/>
-      <c r="Y714" s="46"/>
+      <c r="W714" s="44"/>
+      <c r="X714" s="35"/>
+      <c r="Y714" s="47"/>
       <c r="Z714" s="11"/>
       <c r="AA714" s="11"/>
       <c r="AB714" s="11"/>
@@ -57388,10 +57387,10 @@
       <c r="A715" s="11"/>
       <c r="B715" s="13"/>
       <c r="C715" s="11"/>
-      <c r="D715" s="45"/>
+      <c r="D715" s="46"/>
       <c r="E715" s="11"/>
-      <c r="F715" s="45"/>
-      <c r="G715" s="45"/>
+      <c r="F715" s="46"/>
+      <c r="G715" s="46"/>
       <c r="H715" s="21"/>
       <c r="I715" s="11"/>
       <c r="J715" s="21"/>
@@ -57403,13 +57402,13 @@
       <c r="P715" s="20"/>
       <c r="Q715" s="20"/>
       <c r="R715" s="13"/>
-      <c r="S715" s="33"/>
+      <c r="S715" s="34"/>
       <c r="T715" s="11"/>
-      <c r="U715" s="33"/>
+      <c r="U715" s="34"/>
       <c r="V715" s="11"/>
-      <c r="W715" s="43"/>
-      <c r="X715" s="34"/>
-      <c r="Y715" s="46"/>
+      <c r="W715" s="44"/>
+      <c r="X715" s="35"/>
+      <c r="Y715" s="47"/>
       <c r="Z715" s="11"/>
       <c r="AA715" s="11"/>
       <c r="AB715" s="11"/>
@@ -57418,10 +57417,10 @@
       <c r="A716" s="11"/>
       <c r="B716" s="13"/>
       <c r="C716" s="11"/>
-      <c r="D716" s="45"/>
+      <c r="D716" s="46"/>
       <c r="E716" s="11"/>
-      <c r="F716" s="45"/>
-      <c r="G716" s="45"/>
+      <c r="F716" s="46"/>
+      <c r="G716" s="46"/>
       <c r="H716" s="21"/>
       <c r="I716" s="11"/>
       <c r="J716" s="21"/>
@@ -57433,13 +57432,13 @@
       <c r="P716" s="20"/>
       <c r="Q716" s="20"/>
       <c r="R716" s="13"/>
-      <c r="S716" s="33"/>
+      <c r="S716" s="34"/>
       <c r="T716" s="11"/>
-      <c r="U716" s="33"/>
+      <c r="U716" s="34"/>
       <c r="V716" s="11"/>
-      <c r="W716" s="43"/>
-      <c r="X716" s="34"/>
-      <c r="Y716" s="46"/>
+      <c r="W716" s="44"/>
+      <c r="X716" s="35"/>
+      <c r="Y716" s="47"/>
       <c r="Z716" s="11"/>
       <c r="AA716" s="11"/>
       <c r="AB716" s="11"/>

--- a/data_lakes.xlsx
+++ b/data_lakes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7402" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7403" uniqueCount="228">
   <si>
     <t>Location</t>
   </si>
@@ -694,6 +694,9 @@
   <si>
     <t>lon</t>
   </si>
+  <si>
+    <t>alt</t>
+  </si>
 </sst>
 </file>
 
@@ -36974,6 +36977,9 @@
       <c r="C1" s="46" t="s">
         <v>226</v>
       </c>
+      <c r="D1" s="46" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="46" t="s">
@@ -36985,6 +36991,9 @@
       <c r="C2" s="46">
         <v>11.93971</v>
       </c>
+      <c r="D2" s="46">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="46" t="s">
@@ -36996,6 +37005,9 @@
       <c r="C3" s="46">
         <v>11.64111</v>
       </c>
+      <c r="D3" s="46">
+        <v>10.7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="46" t="s">
@@ -37007,6 +37019,9 @@
       <c r="C4" s="46">
         <v>11.82509</v>
       </c>
+      <c r="D4" s="46">
+        <v>31.2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="46" t="s">
@@ -37018,6 +37033,9 @@
       <c r="C5" s="46">
         <v>12.50285</v>
       </c>
+      <c r="D5" s="46">
+        <v>56.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="46" t="s">
@@ -37029,6 +37047,9 @@
       <c r="C6" s="46">
         <v>11.64373</v>
       </c>
+      <c r="D6" s="46">
+        <v>56.4</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="46" t="s">
@@ -37040,6 +37061,9 @@
       <c r="C7" s="46">
         <v>12.31727</v>
       </c>
+      <c r="D7" s="46">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="46" t="s">
@@ -37051,6 +37075,9 @@
       <c r="C8" s="46">
         <v>12.31686</v>
       </c>
+      <c r="D8" s="46">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="46" t="s">
@@ -37062,6 +37089,9 @@
       <c r="C9" s="46">
         <v>11.88216</v>
       </c>
+      <c r="D9" s="46">
+        <v>26.6</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="46" t="s">
@@ -37073,6 +37103,9 @@
       <c r="C10" s="46">
         <v>12.07579</v>
       </c>
+      <c r="D10" s="46">
+        <v>133.7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="46" t="s">
@@ -37084,6 +37117,9 @@
       <c r="C11" s="46">
         <v>12.08822</v>
       </c>
+      <c r="D11" s="46">
+        <v>80.3</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="46" t="s">
@@ -37095,6 +37131,9 @@
       <c r="C12" s="46">
         <v>12.09048</v>
       </c>
+      <c r="D12" s="46">
+        <v>63.6</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="46" t="s">
@@ -37106,6 +37145,9 @@
       <c r="C13" s="46">
         <v>12.09401</v>
       </c>
+      <c r="D13" s="46">
+        <v>59.6</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="46" t="s">
@@ -37117,6 +37159,9 @@
       <c r="C14" s="46">
         <v>12.10333</v>
       </c>
+      <c r="D14" s="46">
+        <v>51.7</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="46" t="s">
@@ -37127,6 +37172,9 @@
       </c>
       <c r="C15" s="46">
         <v>12.12543</v>
+      </c>
+      <c r="D15" s="46">
+        <v>18.7</v>
       </c>
     </row>
   </sheetData>
